--- a/ml_fb.xlsx
+++ b/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15230,256 +15230,5760 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadmeadow Magic FC </t>
+          <t xml:space="preserve">Hoang Anh Gia Lai </t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maitland FC</t>
+          <t xml:space="preserve"> Hong Linh Ha Tinh FC</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1.31</v>
+        <v>2.15</v>
       </c>
       <c r="D463" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="E463" t="n">
-        <v>5.49</v>
+        <v>1.15</v>
       </c>
       <c r="F463" t="n">
-        <v>1.613333333333333</v>
+        <v>1.34</v>
       </c>
       <c r="G463" t="n">
-        <v>3.08</v>
+        <v>0.66</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadmeadow Magic FC </t>
+          <t xml:space="preserve">Tsirang FC </t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maitland FC</t>
+          <t xml:space="preserve"> Samtse FC</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1.31</v>
+        <v>2.7</v>
       </c>
       <c r="D464" t="n">
-        <v>6.8</v>
+        <v>2.15</v>
       </c>
       <c r="E464" t="n">
-        <v>5.49</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="F464" t="n">
-        <v>1.613333333333333</v>
+        <v>2.433333333333334</v>
       </c>
       <c r="G464" t="n">
-        <v>3.08</v>
+        <v>1.046666666666667</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoang Anh Gia Lai </t>
+          <t xml:space="preserve">Chungnam Asan FC </t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hong Linh Ha Tinh FC</t>
+          <t xml:space="preserve"> Suwon Bluewings</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="D465" t="n">
-        <v>3.3</v>
+        <v>1.94</v>
       </c>
       <c r="E465" t="n">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="F465" t="n">
-        <v>1.34</v>
+        <v>0.79</v>
       </c>
       <c r="G465" t="n">
-        <v>0.66</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tsirang FC </t>
+          <t xml:space="preserve">Jeonnam Dragons </t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Samtse FC</t>
+          <t xml:space="preserve"> Cheongju FC</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="D466" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="E466" t="n">
-        <v>0.5500000000000003</v>
+        <v>1.4</v>
       </c>
       <c r="F466" t="n">
-        <v>2.433333333333334</v>
+        <v>1.1075</v>
       </c>
       <c r="G466" t="n">
-        <v>1.046666666666667</v>
+        <v>1.1025</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chungnam Asan FC </t>
+          <t xml:space="preserve">Seoul E-Land FC </t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Suwon Bluewings</t>
+          <t xml:space="preserve"> Bucheon FC</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="D467" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="E467" t="n">
-        <v>1.66</v>
+        <v>1.15</v>
       </c>
       <c r="F467" t="n">
-        <v>0.79</v>
+        <v>1.26</v>
       </c>
       <c r="G467" t="n">
-        <v>0.8300000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeonnam Dragons </t>
+          <t xml:space="preserve">Meizhou Hakka </t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cheongju FC</t>
+          <t xml:space="preserve"> Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="D468" t="n">
-        <v>3.5</v>
+        <v>3.08</v>
       </c>
       <c r="E468" t="n">
-        <v>1.4</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F468" t="n">
-        <v>1.1075</v>
+        <v>0.41</v>
       </c>
       <c r="G468" t="n">
-        <v>1.1025</v>
+        <v>1.17</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seoul E-Land FC </t>
+          <t xml:space="preserve">Tottenham </t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bucheon FC</t>
+          <t xml:space="preserve"> Newcastle</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="D469" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="E469" t="n">
-        <v>1.15</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F469" t="n">
-        <v>1.26</v>
+        <v>2.5125</v>
       </c>
       <c r="G469" t="n">
-        <v>1.06</v>
+        <v>0.9025000000000001</v>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meizhou Hakka </t>
+          <t xml:space="preserve">AC Nagano Parceiro </t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sichuan Jiuniu</t>
+          <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2.41</v>
+        <v>3.33</v>
       </c>
       <c r="D470" t="n">
-        <v>3.08</v>
+        <v>2.15</v>
       </c>
       <c r="E470" t="n">
-        <v>0.6699999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="F470" t="n">
-        <v>0.41</v>
+        <v>1.4825</v>
       </c>
       <c r="G470" t="n">
+        <v>1.6475</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaublitz Akita </t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niigata Albirex</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1.2525</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Ryukyu </t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E472" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1.5325</v>
+      </c>
+      <c r="G472" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kashiwa Reysol </t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F473" t="n">
+        <v>1.0325</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kataller Toyama </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>6</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E474" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G474" t="n">
+        <v>1.3075</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Machida Zelvia </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F475" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sagan Tosu </t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Tokyo</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F476" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="G476" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokyo Verdy </t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E477" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1.512857142857143</v>
+      </c>
+      <c r="G477" t="n">
+        <v>1.985714285714286</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V-Varen Nagasaki </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Urawa Red Diamonds</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F478" t="n">
+        <v>2.2525</v>
+      </c>
+      <c r="G478" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yokohama FC </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1.636666666666667</v>
+      </c>
+      <c r="G479" t="n">
+        <v>1.146666666666667</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valentine FC </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle Olympic FC</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busan I Park </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cheonan City FC</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D481" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E481" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1.196666666666667</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2.006666666666666</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gimpo FC </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seongnam Ilhwa</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyeongnam FC </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D483" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1.4925</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">K. Khanh Hoa </t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viettel FC</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E484" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludogorets </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFC Lokomotiv Plovdiv</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D485" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E485" t="n">
+        <v>7.130000000000001</v>
+      </c>
+      <c r="F485" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G485" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TJ Start Brno </t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Hlucin</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Mladost Doboj Kakanj </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Zvijezda Gradacac</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E487" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1.2575</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Bratstvo Gracanica </t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BFK Simm-Bau</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D488" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E488" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F488" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Celik Zenica </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Jedinstvo Bihac</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D489" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E489" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="F489" t="n">
+        <v>2.2675</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denmark </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Germany</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D490" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Jazz </t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vasa IFK</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D491" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E491" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F491" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hajer FC Al-Hasa </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Qadisiyah</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E492" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F492" t="n">
+        <v>1.7325</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HNK Rijeka </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GNK Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D493" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Hranice </t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Slovan Rosice</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F494" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Famalicao </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sporting Braga</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D495" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.8066666666666668</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1.573333333333333</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADO Den Haag </t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Excelsior Rotterdam</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1.456666666666666</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1.673333333333333</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryne FK </t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aalesunds FK</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D497" t="n">
+        <v>5</v>
+      </c>
+      <c r="E497" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0.7949999999999999</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egersunds IK </t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Levanger FK</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F498" t="n">
+        <v>2.3475</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1.9275</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kongsvinger IL Fotball </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mjondalen IF</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D499" t="n">
+        <v>5</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.6966666666666667</v>
+      </c>
+      <c r="G499" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ranheim </t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stabaek IF</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F500" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2.416666666666667</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sogndal IL </t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Raufoss IL</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D501" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F501" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIF Sundsvall </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sandvikens IF</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D502" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helsingborgs IF </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Skovde AIK</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D503" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E503" t="n">
+        <v>5.460000000000001</v>
+      </c>
+      <c r="F503" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G503" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orgryte IS </t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trelleborgs FF</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F504" t="n">
+        <v>1</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osters IF </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Landskrona BoIS</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D505" t="n">
+        <v>4</v>
+      </c>
+      <c r="E505" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1.733333333333333</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ostersunds FK </t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gefle IF</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D506" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E506" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1.476666666666667</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.7200000000000001</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tampereen Ilves </t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Inter Turku</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D507" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2.640000000000001</v>
+      </c>
+      <c r="F507" t="n">
+        <v>1.366666666666666</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.6933333333333334</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GFK Tikvesh 1930 </t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Voska Sport</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D508" t="n">
+        <v>3</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Karbach </t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SV Auersmacher</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D509" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E509" t="n">
         <v>1.17</v>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>pending</t>
+      <c r="F509" t="n">
+        <v>3.555</v>
+      </c>
+      <c r="G509" t="n">
+        <v>1.4175</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FV Dudenhofen </t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK 03 Pirmasens</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E510" t="n">
+        <v>3.430000000000001</v>
+      </c>
+      <c r="F510" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.7525</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schwarz-Weiss Essen </t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Buderich 02</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D511" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F511" t="n">
+        <v>2.946666666666667</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.613333333333333</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Paranaense PR </t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fluminense FC RJ</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D512" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceara SC CE </t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cruzeiro EC MG</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>3</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2</v>
+      </c>
+      <c r="E513" t="n">
+        <v>1</v>
+      </c>
+      <c r="F513" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CR Flamengo RJ </t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> America FC MG</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D514" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F514" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RB Bragantino SP </t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sao Paulo FC SP</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcílio Dias U20 </t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Joinville EC U20</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>2</v>
+      </c>
+      <c r="D516" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F516" t="n">
+        <v>2.2925</v>
+      </c>
+      <c r="G516" t="n">
+        <v>1.1525</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boca Juniors </t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Talleres de Cordoba Reserve</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D517" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1.1425</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Belgrano </t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA River Plate (Arg)</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G518" t="n">
+        <v>1.0975</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LR Vicenza </t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calcio Padova</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D519" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1.1975</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1.2425</v>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentino de Quilmes </t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Comunicaciones</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D520" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E520" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="G520" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Claypole </t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Atlas</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D521" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yupanqui </t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Espanol</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E522" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atalanta </t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leverkusen</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F523" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1.3775</v>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St. Francis FC </t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wayside Celtic</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D524" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E524" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="F524" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Real Tomayapo </t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Universitario de Vinto</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D525" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.7675000000000001</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Corinthians SP </t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Goias EC GO</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D526" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F526" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A-League All Stars </t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E527" t="n">
+        <v>3.470000000000001</v>
+      </c>
+      <c r="F527" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubei Istar </t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shandong Taishan B</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F528" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casuarina FC </t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Darwin Olympic SC</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E529" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F529" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1.7825</v>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney FC </t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWS Spirit</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D530" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F530" t="n">
+        <v>2.6275</v>
+      </c>
+      <c r="G530" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadmeadow Magic FC </t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lake Macquarie FC</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D531" t="n">
+        <v>18</v>
+      </c>
+      <c r="E531" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F531" t="n">
+        <v>3.023333333333333</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2.726666666666667</v>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Adelaide FC </t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City FC</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E532" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1.5275</v>
+      </c>
+      <c r="G532" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulsan Citizen FC </t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangladesh Police FC </t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fortis FC</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D534" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E534" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahmatganj MFS </t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bashundhara Kings</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>26</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E535" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="F535" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.7175</v>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Changnyeong WFC </t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sejong Sportstoto WFC</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.7025</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riverside Olympic FC </t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Launceston City FC</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>7</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.7699999999999999</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2.335</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane City FC </t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitchelton FC</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D538" t="n">
+        <v>16</v>
+      </c>
+      <c r="E538" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="G538" t="n">
+        <v>1.4475</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Redlands United FC </t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rochedale Rovers</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D539" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1.973333333333333</v>
+      </c>
+      <c r="G539" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bentleigh Greens </t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Bulleen Lions</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D540" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E540" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port Darwin FC </t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Darwin Hearts FC</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E541" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terengganu FC </t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kelantan United FC</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D542" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E542" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.255</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LNZ Cherkasy </t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D543" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1.4675</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Afula FC </t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Acre FC</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D544" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E544" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Nir Ramat Hasharon FC </t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Ironi Kiryat Shmona FC</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oman Club </t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sur SC</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D546" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Liepaja </t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valmiera FC</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>6</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mkp Carina Gubin </t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Warta Gorzow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D548" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1</v>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Be1 Nfa </t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Babrungas Plunge</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D549" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E549" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OPS Oulu </t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JS Hercules</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D550" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HNK Gorica </t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Istra 1961</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>3</v>
+      </c>
+      <c r="D551" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enppi Club </t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D552" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.8499999999999996</v>
+      </c>
+      <c r="F552" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharco FC </t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Smouha SC</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D553" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.7725</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FA Povltavska </t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D554" t="n">
+        <v>4</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F554" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Kraluv Dvur </t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bohemians Prague 1905 B</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D555" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G555" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GKS Wikielec </t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KS Pelikan Lowicz</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D556" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Vitebsk </t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Naftan Novopolotsk</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D557" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Sadd SC </t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qatar SC</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D558" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E558" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F558" t="n">
+        <v>2.373333333333334</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1.503333333333333</v>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Suduva Marijampole </t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Transinvest</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D559" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E559" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Wehdat Jor </t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al Aqaba</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D560" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E560" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1.404285714285714</v>
+      </c>
+      <c r="G560" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Kiffen </t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nurmijarven Jalkapalloseura</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D561" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E561" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Arabi (KW) </t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Fahaheel</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D562" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E562" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nykoebing FC </t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E563" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F563" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atalanta BC </t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sassuolo Calcio</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D564" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Javor Ivanjica </t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D565" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Novi Pazar </t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D566" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F566" t="n">
+        <v>1.316666666666667</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Kufstein </t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Pinzgau Saalfelden</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>3</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E567" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F567" t="n">
+        <v>1.6375</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alanyaspor </t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antalyaspor</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D568" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F568" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IF Elfsborg </t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Halmstads BK</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D569" t="n">
+        <v>8</v>
+      </c>
+      <c r="E569" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2.0275</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malmo </t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kalmar FF</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D570" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E570" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="F570" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bodoe/Glimt </t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KFUM Oslo</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D571" t="n">
+        <v>10</v>
+      </c>
+      <c r="E571" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Mioveni </t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Botosani</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E572" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F572" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hillerod Fodbold </t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Horsens</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D573" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F573" t="n">
+        <v>1</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hobro IK </t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SonderjyskE</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F574" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vendsyssel FF </t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Fredericia</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D575" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E575" t="n">
+        <v>1</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.8100000000000002</v>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AB Gladsaxe </t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Roskilde</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E576" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emirates Club </t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Nasr Dubai CSC</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>4</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1.66625</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.4525</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orebro Syrianska IF </t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FBK Karlstad</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D578" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E578" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Torns IF </t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ariana FC</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E579" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F579" t="n">
+        <v>3.076666666666667</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grebbestads IF </t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Herrestads AIF</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D580" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1.5675</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nosaby IF </t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IFK Hassleholm</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D581" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASK Voitsberg </t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USV Weindorf St. Anna am Aigen</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D582" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E582" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vorwarts Steyr </t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Gurten</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Marchfeld Donauauen </t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kremser SC</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D584" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F584" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tvaakers IF </t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ljungskile SK</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D585" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E585" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edgeworth FC </t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle Olympic FC</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>2</v>
+      </c>
+      <c r="D586" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E586" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.1633333333333333</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maitland FC </t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D587" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.2300000000000001</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2.013333333333333</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clarence Zebras FC </t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Devonport City SC</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E588" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1.7775</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ehime FC </t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tochigi SC</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D589" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F589" t="n">
+        <v>2.334</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D590" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E590" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1.0675</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jubilo Iwata </t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D591" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F591" t="n">
+        <v>1.5825</v>
+      </c>
+      <c r="G591" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeonbuk Hyundai Motors </t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D592" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E592" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F592" t="n">
+        <v>1.7325</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1.2525</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fujieda MYFC </t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kagoshima United</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D593" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G593" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V-Varen Nagasaki </t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JEF United Ichihara Chiba</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D594" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1.9075</v>
+      </c>
+      <c r="G594" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avondale FC </t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St Albans Saints</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D595" t="n">
+        <v>14</v>
+      </c>
+      <c r="E595" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F595" t="n">
+        <v>2.0675</v>
+      </c>
+      <c r="G595" t="n">
+        <v>2.7125</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canberra Olympic </t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Monaro Panthers FC</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E596" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F596" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cooma Tigers </t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> O Connor Knights FC</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E597" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AC Nagano Parceiro </t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kanagawa Sagamihara</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D598" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E598" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JEF United Ichihara Chiba </t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chifure AS Elfen Saitama</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D599" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F599" t="n">
+        <v>2.393333333333333</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omiya Ardija Ventus </t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INAC Kobe Leonessa</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E600" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanfrecce Hiroshima Regina </t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerezo Osaka Sakai Ladies</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D601" t="n">
+        <v>3</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1.676666666666667</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urawa Red Diamonds </t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokyo Verdy Beleza</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D602" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1.268571428571429</v>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campbelltown City SC </t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide United FC</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D603" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F603" t="n">
+        <v>2.671666666666667</v>
+      </c>
+      <c r="G603" t="n">
+        <v>2.436666666666667</v>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Para Hills Knights SC </t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Modbury Jets SC</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D604" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E604" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.388</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calder United SC</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D605" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F605" t="n">
+        <v>2.1825</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1.9425</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cooks Hill United </t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lambton Jaffas FC</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E606" t="n">
+        <v>7.989999999999999</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.4975</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queensland Lions FC </t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Peninsula Power FC</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D607" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E607" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.652857142857143</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kawasaki Frontale </t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D608" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="F608" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niigata Albirex </t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avispa Fukuoka</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D609" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.4100000000000001</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ventforet Kofu </t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yokohama FC</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1.796666666666667</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port Melbourne Sharks </t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melbourne Knights</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D611" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2.6275</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balcatta </t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Armadale SC</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F612" t="n">
+        <v>2.183333333333333</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.623333333333333</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Floreat Athena </t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympic Kingsway SC</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1.6625</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fremantle City </t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Perth SC</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D614" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.951666666666667</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inglewood United </t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bayswater City</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E615" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="G615" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perth Glory FC </t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stirling Macedonia FC</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E616" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2.102222222222222</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perth Redstar FC </t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Western Knights SC</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D617" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.675555555555555</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daegu FC II </t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pocheon Citizen FC</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2.1175</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jiangxi Beidamen</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D619" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E619" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2.1375</v>
+      </c>
+      <c r="G619" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taian Tiankuang </t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Xi An Ronghai</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D620" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E620" t="n">
+        <v>5.960000000000001</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G620" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meralco Manila </t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philippine Air Force FC</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D621" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E621" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F621" t="n">
+        <v>3.7925</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boroondara Eagles </t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brunswick Juventus FC</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D622" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="G622" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulsan Hyundai FC </t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Daejeon Citizen FC</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D623" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E623" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2.113333333333333</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.173333333333333</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APIA Leichhardt </t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Blacktown City FC</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D624" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="G624" t="n">
+        <v>3</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">North Eastern Metrostars SC </t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> White City FK Beograd</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D625" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E625" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1.938</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chuncheon FC </t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Changwon City FC</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D626" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1.25375</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caboolture FC </t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moreton City Excelsior FC 2</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D627" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E627" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G627" t="n">
+        <v>2.237142857142857</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southside Eagles </t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Logan Lightning</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>4</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E628" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2.0125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>2.6325</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taichung Blue Whale </t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hualian</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D629" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E629" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Altona Magic SC </t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dandenong City SC</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D630" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E630" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1.221111111111111</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1.883333333333333</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wolves FC </t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gold Coast Knights</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>11</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E631" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Jablonec B </t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tj Slovan Velvary</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelaide Olympic FC </t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide Comets FC</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>5</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E633" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Dynamo Ceske Budejovice B </t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Viktoria Plzen B</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D634" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Sparta Kolin </t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Chlumec Nad Cidlinou</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D635" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1.945</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong Thunder </t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manningham United Blues</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D636" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1.676666666666667</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2.783333333333333</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George Saints FC </t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manly United FC</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D637" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1.352857142857143</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2.128571428571429</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eastern Suburbs FC </t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Capalaba Bulldogs</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D638" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E638" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jagiellonia II Bialystok </t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olimpia Zambrow</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D639" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DH Cebu FC </t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> United City FC</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D640" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F640" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2.331</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lions FC </t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Souths United</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D641" t="n">
+        <v>8</v>
+      </c>
+      <c r="E641" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="F641" t="n">
+        <v>2.352941176470588</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2.005294117647059</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broadbeach United </t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitchelton FC</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D642" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E642" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="F642" t="n">
+        <v>2.202</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1.962</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>

--- a/ml_fb.xlsx
+++ b/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H642"/>
+  <dimension ref="A1:H766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20987,6 +20987,3974 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boca Juniors </t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Talleres de Cordoba</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D643" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E643" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miami FC </t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Carolina FC</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E644" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattanooga FC </t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlanta United 2</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D645" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E645" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1.503333333333333</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlotte Eagles </t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Carolina Fusion U23</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D646" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F646" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G646" t="n">
+        <v>2.0125</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fort Wayne FC </t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Toledo Villa FC</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D647" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E647" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2.703333333333333</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miami AC </t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampa Bay United</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D648" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F648" t="n">
+        <v>2.103333333333333</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RKC Soccer Club </t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rochester FC</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D649" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E649" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="F649" t="n">
+        <v>3.073333333333333</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Carolina United FC </t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Charlotte Independence 2</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D650" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E650" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2.458333333333333</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1.956666666666667</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 FC Kaiserslautern </t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leverkusen</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E651" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1.3925</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excelsior Rotterdam </t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D652" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F652" t="n">
+        <v>2.0325</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentinos Juniors </t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA River Plate (ARG)</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E653" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F653" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liverpool Montevideo </t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D654" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E654" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agropecuario Argentino </t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Defensores Unidos</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D655" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E655" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1.6975</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Americano FC RJ </t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marica FC RJ</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E656" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="G656" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goncalense FC RJ </t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Resende FC RJ</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D657" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E657" t="n">
+        <v>2.279999999999999</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Cremonese </t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Catanzaro</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D658" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E658" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1.2825</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oud-Heverlee Leuven </t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D659" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yellow-Red KV Mechelen </t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Standard Liege</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D660" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.7066666666666666</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1.506666666666667</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASD Torres Sassari </t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Benevento</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D661" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E661" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calcio Padova </t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LR Vicenza</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D662" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2.0475</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0.5099999999999999</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carrarese Calcio </t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Juventus FC</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D663" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E663" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0.7474999999999999</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Avellino </t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calcio Catania</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D664" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E664" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1.2375</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0.7325</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Lugano </t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Servette Geneva</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D665" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E665" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC St. Gallen 1879 </t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Zurich</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D666" t="n">
+        <v>3</v>
+      </c>
+      <c r="E666" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1.456666666666667</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Young Boys Bern </t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Winterthur</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D667" t="n">
+        <v>6</v>
+      </c>
+      <c r="E667" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.4766666666666667</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1.848333333333333</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ciudad de Bolivar </t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Argentino Monte Maiz</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D668" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E668" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F668" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.8640000000000001</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independiente de Chivilcoy </t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Linqueno</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D669" t="n">
+        <v>4</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.6566666666666666</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.8066666666666666</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Villa San Carlos </t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Italiano</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D670" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1.0925</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD UAI Urquiza </t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Armenio</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>4</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E671" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Acassuso </t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Atletico Fenix</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D672" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E672" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSD Flandria </t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentino de Merlo</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D673" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.9300000000000002</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1.37125</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Merlo </t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canuelas FC</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2</v>
+      </c>
+      <c r="D674" t="n">
+        <v>4</v>
+      </c>
+      <c r="E674" t="n">
+        <v>2</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longford Town FC </t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D675" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1.246666666666667</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1.986666666666667</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Claypole </t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> General Lamadrid</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D676" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1.566666666666666</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audax Rio EC RJ </t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E677" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.5475000000000001</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.3825</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Milan </t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Salernitana</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D678" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="E678" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portimonense SC </t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avs Futebol Sad</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D679" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E679" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F679" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G679" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Madrid </t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Betis</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D680" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E680" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1.9125</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyon </t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSG</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E681" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1.9275</v>
+      </c>
+      <c r="G681" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Iquique </t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colo-Colo</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D682" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F682" t="n">
+        <v>2</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Sarmiento de Resistencia </t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Crucero del Norte</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D683" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.2475</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Def. de Belgrano de Villa Ramallo </t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sportivo Las Parejas</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D684" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E684" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.5279999999999999</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Magallanes </t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union San Felipe</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D685" t="n">
+        <v>5</v>
+      </c>
+      <c r="E685" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F685" t="n">
+        <v>2.123333333333334</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1.856666666666667</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Aurora</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D686" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AA Altos PI </t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fluminense EC PI</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D687" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Patrocinense MG </t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Costa Rica EC MS</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D688" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.8499999999999996</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.6525</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Atletico Cearense CE </t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treze FC PB</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E689" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F689" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petrolina PE </t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Retro FC PE</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.5750000000000001</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD Juazeirense BA </t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AS Arapiraquense AL</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D691" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1.423333333333334</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valur Reykjavik </t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FH Hafnarfjordur</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D692" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E692" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhode Island FC </t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Louisville City FC</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D693" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comerciantes Unidos </t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E694" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.7225</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Garcilaso </t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FBC Melgar</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D695" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1.183333333333333</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Universitario de Deportes </t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Los Chankas CYC</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D696" t="n">
+        <v>23</v>
+      </c>
+      <c r="E696" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AD Confianca SE </t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC FC RN</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D697" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nautico PE </t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clube do Remo PA</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>2</v>
+      </c>
+      <c r="D698" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E698" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F698" t="n">
+        <v>2.245</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1.1775</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Valdivia </t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Colina</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D699" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F699" t="n">
+        <v>1.3825</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Esportiva AL </t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EC Jacuipense BA</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F700" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.3366666666666667</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comerciantes FC </t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ayacucho FC</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D701" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E701" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newell's Old Boys </t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D702" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E702" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G702" t="n">
+        <v>1</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pirata FC </t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Juan Pablo II</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D703" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E703" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.6999999999999998</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AFC Ann Arbor </t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oakland County FC</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D704" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G704" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletico de Rafaela </t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almirante Brown</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D705" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E705" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G705" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Marathon San Pedro Sula </t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Olimpia Tegucigalpa</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D706" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E706" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F706" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0.6966666666666667</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tacuary Asuncion </t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>8</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E707" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Bolivar </t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D708" t="n">
+        <v>24</v>
+      </c>
+      <c r="E708" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vancouver Langley FC </t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pacific FC</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>3</v>
+      </c>
+      <c r="D709" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.9724999999999999</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vissel Kobe </t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokyo Verdy</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D710" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="G710" t="n">
+        <v>0.3475</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaublitz Akita </t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Thespakusatsu</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D711" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E711" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="G711" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iwaki FC </t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tokushima Vortis</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D712" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E712" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.7974999999999999</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oita Trinita </t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1.0525</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roasso Kumamoto </t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shimizu S-Pulse </t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mito Hollyhock</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D715" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E715" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vegalta Sendai </t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fagiano Okayama</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D716" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heidelberg United FC</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D717" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E717" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canberra Croatia FC </t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yoogali SC</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D718" t="n">
+        <v>16</v>
+      </c>
+      <c r="E718" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G718" t="n">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tuggeranong Utd </t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gungahlin United FC</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E719" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1.5675</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rockdale Ilinden FC </t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St George City FA</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D720" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E720" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1.843333333333333</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1.556666666666667</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney United </t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Central Coast Mariners Academy</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D721" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E721" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F721" t="n">
+        <v>2.5675</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wollongong Wolves FC </t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marconi Stallions</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D722" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F722" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1.2525</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane Roar FC </t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brisbane City FC</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E723" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="G723" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busan Transportation Corporation FC </t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yangpyeong FC</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D724" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siheung Citizen FC </t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hwaseong FC</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D725" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G725" t="n">
+        <v>2.4075</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunshine Coast Wanderers FC </t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympic FC Brisbane</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D726" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E726" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1.4975</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerezo Osaka </t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D727" t="n">
+        <v>2</v>
+      </c>
+      <c r="E727" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1.0025</v>
+      </c>
+      <c r="G727" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Tokyo </t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.5099999999999998</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1.126666666666667</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagoya Grampus </t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kyoto Sanga FC</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D729" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E729" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Melbourne FC </t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moreland City FC</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D730" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E730" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F730" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="G730" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Mokpo </t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Daejeon Korail FC</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D731" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George Willawong FC </t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ipswich FC</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D732" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E732" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F732" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="G732" t="n">
+        <v>1.511666666666667</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urawa Red Diamonds </t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D733" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.3399999999999999</v>
+      </c>
+      <c r="F733" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Coast United FC </t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sunshine Coast Wanderers</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D734" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E734" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1.191666666666667</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1.206666666666667</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Langfang Glory City FC </t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rizhao Yuqi</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D735" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Golik North District </t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eastern SC</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E736" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="F736" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1.9575</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong Kong FC </t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sham Shui Po SA</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D737" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1.464285714285714</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.9814285714285714</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kitchee SC </t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lee Man FC</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D738" t="n">
+        <v>3</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.6233333333333334</v>
+      </c>
+      <c r="G738" t="n">
+        <v>2.023333333333333</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resources Capital FC </t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Southern District Football Club</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E739" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1.423333333333333</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1.443333333333333</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daegu FC </t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gangwon FC</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D740" t="n">
+        <v>3</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1.9275</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheongju FC </t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gyeongnam FC</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D741" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalian Zhixing FC </t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D742" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="G742" t="n">
+        <v>0.9349999999999999</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volos NPS </t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OFI</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D743" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F743" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="G743" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eastern Suburbs FC </t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gold Coast United FC</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D744" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E744" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1.977777777777778</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1.424444444444444</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Hradec Kralove B </t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D745" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E745" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Mlada Boleslav B </t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Teplice B</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D746" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E746" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1.246666666666667</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Pardubice B </t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D747" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F747" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1.818333333333333</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Velke Mezirici </t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Pelhimov</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D748" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E748" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F748" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G748" t="n">
+        <v>0.9450000000000001</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Dark Horse Junior </t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guangxi Hengchen FC</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D749" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Murcia B </t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF Lorca Deportiva</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D750" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E750" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.7475000000000001</v>
+      </c>
+      <c r="G750" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Elva </t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viimsi JK</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E751" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F751" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Tallinn </t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paide Linnameeskond U21</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D752" t="n">
+        <v>13</v>
+      </c>
+      <c r="E752" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F752" t="n">
+        <v>2.303333333333333</v>
+      </c>
+      <c r="G752" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Basconia </t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Portugalete</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D753" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E753" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="G753" t="n">
+        <v>0.7524999999999999</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Kuressaare U21 </t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Laanemaa JK Haapsalu</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D754" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E754" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F754" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Phoenix Johvi </t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tartu JK Tammeka U21</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E755" t="n">
+        <v>3</v>
+      </c>
+      <c r="F755" t="n">
+        <v>2.1825</v>
+      </c>
+      <c r="G755" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JK Narva Trans </t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FA Tartu Kalev</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E756" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="G756" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sichuan Jiuniu </t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E757" t="n">
+        <v>7.050000000000001</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeju United FC </t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suwon FC</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D758" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0</v>
+      </c>
+      <c r="F758" t="n">
+        <v>0.9475000000000001</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1.5825</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seongnam Ilhwa </t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cheonan City FC</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D759" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E759" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1.007142857142857</v>
+      </c>
+      <c r="G759" t="n">
+        <v>0.7785714285714286</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lusitania FC Lourosa </t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Feirense</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D760" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E760" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanjong Pagar United FC </t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hougang United FC</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E761" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F761" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="G761" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RC Celta de Vigo C </t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD Sarriana</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D762" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E762" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1.4925</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RCD Mallorca B </t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Manacor</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D763" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E763" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F763" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="G763" t="n">
+        <v>1.7225</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuarte CD </t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Caspe</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D764" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E764" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F764" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="G764" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporting Gijon B </t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L Entregu CF</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D765" t="n">
+        <v>5</v>
+      </c>
+      <c r="E765" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G765" t="n">
+        <v>0.05000000000000001</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangor GG FC </t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kilbarrack United</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D766" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E766" t="n">
+        <v>0.05000000000000027</v>
+      </c>
+      <c r="F766" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G766" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ml_fb.xlsx
+++ b/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H766"/>
+  <dimension ref="A1:H826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoang Anh Gia Lai </t>
+          <t>Hoang Anh Gia Lai</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hong Linh Ha Tinh FC </t>
+          <t>Hong Linh Ha Tinh FC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanzania Prisons </t>
+          <t>Tanzania Prisons</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lamphun Warrior </t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -606,7 +606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marek Dupnica </t>
+          <t>Marek Dupnica</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viettel FC </t>
+          <t>Viettel FC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kolos Kovalivka </t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Brann 2 </t>
+          <t>SK Brann 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emirates Club </t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Sigma Olomouc B </t>
+          <t>SK Sigma Olomouc B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">SFC Etar Veliko Tarnovo </t>
+          <t>SFC Etar Veliko Tarnovo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -830,7 +830,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zob Ahan Isfahan FC </t>
+          <t>Zob Ahan Isfahan FC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bristol City </t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Samgurali Tskaltubo </t>
+          <t>FC Samgurali Tskaltubo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Samtredia </t>
+          <t>FC Samtredia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -958,7 +958,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Ittihad Al Sakandary </t>
+          <t>Al Ittihad Al Sakandary</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -990,7 +990,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Van Charentsavan </t>
+          <t>FC Van Charentsavan</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1022,7 +1022,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sharjah FC </t>
+          <t>Sharjah FC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Karkonosze Jelenia Gora </t>
+          <t>Karkonosze Jelenia Gora</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rekord Bielsko Biala </t>
+          <t>Rekord Bielsko Biala</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC BKMA Vagharshapat </t>
+          <t>FC BKMA Vagharshapat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al-Jalil </t>
+          <t>Al-Jalil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1182,7 +1182,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moghayer AL Sarhan </t>
+          <t>Moghayer AL Sarhan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Saburtalo Tbilisi </t>
+          <t>FC Saburtalo Tbilisi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tampere United </t>
+          <t>Tampere United</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">SD Eibar </t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Bukiryah </t>
+          <t>Al Bukiryah</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1342,7 +1342,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">AL Khalidiyah </t>
+          <t>AL Khalidiyah</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1374,7 +1374,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al-Najma Manama </t>
+          <t>Al-Najma Manama</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1406,7 +1406,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Emmen </t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orebro SK </t>
+          <t>Orebro SK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ajman Club </t>
+          <t>Ajman Club</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1502,7 +1502,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barnsley FC </t>
+          <t>Barnsley FC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lokomotiv Tashkent </t>
+          <t>Lokomotiv Tashkent</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1566,7 +1566,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Umm-Salal SC </t>
+          <t>Umm-Salal SC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1598,7 +1598,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">AL Arabi (SA) </t>
+          <t>AL Arabi (SA)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1630,7 +1630,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">FBK Balkan </t>
+          <t>FBK Balkan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">North Carolina FC </t>
+          <t>North Carolina FC</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1694,7 +1694,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boston Bolts </t>
+          <t>Boston Bolts</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1726,7 +1726,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Defensa y Justicia </t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sportivo Ameliano </t>
+          <t>Sportivo Ameliano</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1790,7 +1790,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chacaritas FC </t>
+          <t>Chacaritas FC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA River Plate (ARG) </t>
+          <t>CA River Plate (ARG)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1854,7 +1854,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Botafogo FC SP </t>
+          <t>Botafogo FC SP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1886,7 +1886,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coritiba FC PR </t>
+          <t>Coritiba FC PR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">SC Corinthians SP </t>
+          <t>SC Corinthians SP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1950,7 +1950,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Girona FC </t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1982,7 +1982,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuniburo FC </t>
+          <t>Cuniburo FC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2014,7 +2014,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Carlos Stein </t>
+          <t>FC Carlos Stein</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2046,7 +2046,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Talleres de Cordoba </t>
+          <t>CA Talleres de Cordoba</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2078,7 +2078,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">LDU Quito </t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avai FC SC </t>
+          <t>Avai FC SC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2142,7 +2142,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vila Nova FC GO </t>
+          <t>Vila Nova FC GO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2174,7 +2174,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Racing Club Montevideo </t>
+          <t>Racing Club Montevideo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2206,7 +2206,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charlotte Independence 2 </t>
+          <t>Charlotte Independence 2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanghai Mitsubishi Heavy Industries Fly </t>
+          <t>Shanghai Mitsubishi Heavy Industries Fly</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2270,7 +2270,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gwangju FC </t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2302,7 +2302,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bucheon FC </t>
+          <t>Bucheon FC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2334,7 +2334,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chungnam Asan FC </t>
+          <t>Chungnam Asan FC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2366,7 +2366,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeonnam Dragons </t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2398,7 +2398,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2430,7 +2430,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kashiwa Reysol </t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2462,7 +2462,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Machida Zelvia </t>
+          <t>Machida Zelvia</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nagoya Grampus </t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niigata Albirex </t>
+          <t>Niigata Albirex</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sagan Tosu </t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2590,7 +2590,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sanfrecce Hiroshima </t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2622,7 +2622,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tokyo Verdy </t>
+          <t>Tokyo Verdy</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2654,7 +2654,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vissel Kobe </t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2686,7 +2686,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheonan City FC </t>
+          <t>Cheonan City FC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheongju FC </t>
+          <t>Cheongju FC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2750,7 +2750,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Anyang </t>
+          <t>FC Anyang</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urawa Red Diamonds </t>
+          <t>Urawa Red Diamonds</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2814,7 +2814,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shanghai Shenhua </t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2846,7 +2846,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Vorskla Poltava </t>
+          <t>FC Vorskla Poltava</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Randers FC </t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2910,7 +2910,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vejle BK </t>
+          <t>Vejle BK</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2942,7 +2942,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pyramids FC </t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2974,7 +2974,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Argentino Monte Maiz </t>
+          <t>CD Argentino Monte Maiz</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columbus Crew 2 </t>
+          <t>Columbus Crew 2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3038,7 +3038,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ludogorets </t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3070,7 +3070,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olympique Dcheira </t>
+          <t>Olympique Dcheira</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3102,7 +3102,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Telavi </t>
+          <t>FC Telavi</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3134,7 +3134,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madla </t>
+          <t>Madla</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al-Ahli SC Manama </t>
+          <t>Al-Ahli SC Manama</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Busaiteen </t>
+          <t>Busaiteen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manama Club </t>
+          <t>Manama Club</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3262,7 +3262,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sitra Club </t>
+          <t>Sitra Club</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brikama United </t>
+          <t>Brikama United</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3326,7 +3326,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Halmstads BK </t>
+          <t>Halmstads BK</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3358,7 +3358,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">IF Elfsborg </t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3390,7 +3390,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mjallby AIF </t>
+          <t>Mjallby AIF</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3422,7 +3422,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olympiacos </t>
+          <t>Olympiacos</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">PAOK Thessaloniki </t>
+          <t>PAOK Thessaloniki</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3486,7 +3486,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Ferro Carril Oeste General Pico </t>
+          <t>CA Ferro Carril Oeste General Pico</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Torpedo Kutaisi </t>
+          <t>FC Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">GNK Dinamo Zagreb </t>
+          <t>GNK Dinamo Zagreb</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3582,7 +3582,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">MS Tira </t>
+          <t>MS Tira</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Holy Ghost </t>
+          <t>Holy Ghost</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3646,7 +3646,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rayo Vallecano </t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3678,7 +3678,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sevilla </t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3710,7 +3710,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paksi FC </t>
+          <t>Paksi FC</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3742,7 +3742,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Zenit Saint Petersburg </t>
+          <t>FK Zenit Saint Petersburg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3774,7 +3774,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unia Skierniewice </t>
+          <t>Unia Skierniewice</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3806,7 +3806,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Maan </t>
+          <t>FC Maan</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">AL Ain FC </t>
+          <t>AL Ain FC</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3870,7 +3870,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gimnasia Y Esgrima Mendoza </t>
+          <t>Gimnasia Y Esgrima Mendoza</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3902,7 +3902,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">KA Akureyri </t>
+          <t>KA Akureyri</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3934,7 +3934,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kilmarnock FC </t>
+          <t>Kilmarnock FC</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Zurich </t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3998,7 +3998,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lausanne-Sport </t>
+          <t>Lausanne-Sport</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Sansinena SD </t>
+          <t>CA Sansinena SD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4062,7 +4062,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Sol de America de Formosa </t>
+          <t>CA Sol de America de Formosa</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Circulo Deportivo </t>
+          <t>Club Circulo Deportivo</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4126,7 +4126,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportivo Rincon </t>
+          <t>Deportivo Rincon</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central Ballester </t>
+          <t>Central Ballester</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4190,7 +4190,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kilbarrack United </t>
+          <t>Kilbarrack United</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4222,7 +4222,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brighton </t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4254,7 +4254,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aberdeen FC </t>
+          <t>Aberdeen FC</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4286,7 +4286,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hibernian FC </t>
+          <t>Hibernian FC</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">St Johnstone FC </t>
+          <t>St Johnstone FC</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4350,7 +4350,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">St Mirren FC </t>
+          <t>St Mirren FC</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">St. Mochtas </t>
+          <t>St. Mochtas</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Man Utd </t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4446,7 +4446,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atalanta </t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4478,7 +4478,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nice </t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4510,7 +4510,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reims </t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4542,7 +4542,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Estudiantes San Luis </t>
+          <t>CS Estudiantes San Luis</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4574,7 +4574,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olympique Club of Khouribga </t>
+          <t>Olympique Club of Khouribga</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4606,7 +4606,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamilton Academical FC </t>
+          <t>Hamilton Academical FC</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Celta </t>
+          <t>Celta</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4670,7 +4670,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Getafe </t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4702,7 +4702,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">9 de Octubre FC </t>
+          <t>9 de Octubre FC</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4734,7 +4734,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Almirante Brown </t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4766,7 +4766,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shandong Taishan </t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4798,7 +4798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Tyumen </t>
+          <t>FC Tyumen</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4830,7 +4830,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kenya Commercial Bank </t>
+          <t>Kenya Commercial Bank</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4862,7 +4862,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Green Buffaloes </t>
+          <t>Green Buffaloes</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">BB Bodrumspor </t>
+          <t>BB Bodrumspor</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4926,7 +4926,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leningradets </t>
+          <t>Leningradets</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4958,7 +4958,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Urartu Yerevan </t>
+          <t>FC Urartu Yerevan</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4990,7 +4990,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al-Ain FC </t>
+          <t>Al-Ain FC</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5022,7 +5022,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA San Lorenzo de Almagro </t>
+          <t>CA San Lorenzo de Almagro</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5054,7 +5054,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sao Paulo FC SP </t>
+          <t>Sao Paulo FC SP</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5086,7 +5086,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cruzeiro EC MG </t>
+          <t>Cruzeiro EC MG</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5118,7 +5118,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sportivo Luqueno </t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5150,7 +5150,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Independiente Juniors </t>
+          <t>CD Independiente Juniors</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5182,7 +5182,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atletico Mineiro MG </t>
+          <t>Atletico Mineiro MG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5214,7 +5214,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">LD Alajuelense </t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5246,7 +5246,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Atletico Rosario Central </t>
+          <t>Club Atletico Rosario Central</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fluminense FC RJ </t>
+          <t>Fluminense FC RJ</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5310,7 +5310,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Universitario de Deportes </t>
+          <t>Universitario de Deportes</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5342,7 +5342,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Racing Club Avellaneda </t>
+          <t>Racing Club Avellaneda</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vega Real </t>
+          <t>Vega Real</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5406,7 +5406,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sao Paulo FC SP </t>
+          <t>Sao Paulo FC SP</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daejeon Korail FC </t>
+          <t>Daejeon Korail FC</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5470,7 +5470,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shenzhen Juniors FC </t>
+          <t>Shenzhen Juniors FC</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5502,7 +5502,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preston Lions </t>
+          <t>Preston Lions</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5534,7 +5534,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dandenong City SC </t>
+          <t>Dandenong City SC</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5566,7 +5566,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central Coast Mariners Academy </t>
+          <t>Central Coast Mariners Academy</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5598,7 +5598,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modbury Jets SC </t>
+          <t>Modbury Jets SC</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5630,7 +5630,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para Hills Knights SC </t>
+          <t>Para Hills Knights SC</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5662,7 +5662,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Fakel Voronezh Youth </t>
+          <t>FC Fakel Voronezh Youth</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5694,7 +5694,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samara Kryliya Sovetov </t>
+          <t>Samara Kryliya Sovetov</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Strogino Moscow </t>
+          <t>Strogino Moscow</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5758,7 +5758,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abahani Limited Dhaka </t>
+          <t>Abahani Limited Dhaka</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5790,7 +5790,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohammedan SC Dhaka </t>
+          <t>Mohammedan SC Dhaka</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5822,7 +5822,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sturt Lions </t>
+          <t>Sturt Lions</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5854,7 +5854,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moreland City FC </t>
+          <t>Moreland City FC</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5886,7 +5886,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bentleigh Greens </t>
+          <t>Bentleigh Greens</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5918,7 +5918,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide City </t>
+          <t>Adelaide City</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5950,7 +5950,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide University </t>
+          <t>Adelaide University</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5982,7 +5982,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zhejiang Professional </t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -6014,7 +6014,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dalian Kun City </t>
+          <t>Dalian Kun City</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olympic Kingsway SC </t>
+          <t>Olympic Kingsway SC</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perth SC </t>
+          <t>Perth SC</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6110,7 +6110,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flinders United Wfc </t>
+          <t>Flinders United Wfc</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rizhao Yuqi </t>
+          <t>Rizhao Yuqi</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6174,7 +6174,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cangzhou Mighty Lions </t>
+          <t>Cangzhou Mighty Lions</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6206,7 +6206,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Henan Songshan Longmen </t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6238,7 +6238,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meizhou Hakka </t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6270,7 +6270,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geylang International FC </t>
+          <t>Geylang International FC</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6302,7 +6302,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Changchun Yatai </t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6334,7 +6334,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dinamo Moscow </t>
+          <t>Dinamo Moscow</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6366,7 +6366,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Football Academy Of Konoplev </t>
+          <t>Football Academy Of Konoplev</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rubin Kazan </t>
+          <t>Rubin Kazan</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6430,7 +6430,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Police Tero FC </t>
+          <t>Police Tero FC</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6462,7 +6462,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Pirin Blagoevgrad </t>
+          <t>FC Pirin Blagoevgrad</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6494,7 +6494,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hanoi FC </t>
+          <t>Hanoi FC</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6526,7 +6526,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">AC Monza </t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bnei Yehuda Tel Aviv FC </t>
+          <t>Bnei Yehuda Tel Aviv FC</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6590,7 +6590,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Acre FC </t>
+          <t>Hapoel Acre FC</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6622,7 +6622,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Ironi Kiryat Shmona FC </t>
+          <t>Hapoel Ironi Kiryat Shmona FC</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6654,7 +6654,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Nof Hagalil FC </t>
+          <t>Hapoel Nof Hagalil FC</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6686,7 +6686,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Rishon Lezion FC </t>
+          <t>Hapoel Rishon Lezion FC</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ironi Tiberias </t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6750,7 +6750,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sektzia Ness Ziona FC </t>
+          <t>Sektzia Ness Ziona FC</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6782,7 +6782,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kelantan United FC </t>
+          <t>Kelantan United FC</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Hikma </t>
+          <t>Al Hikma</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6846,7 +6846,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shabab AL Sahel </t>
+          <t>Shabab AL Sahel</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6878,7 +6878,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Korba </t>
+          <t>CS Korba</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6910,7 +6910,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">EGS Gafsa </t>
+          <t>EGS Gafsa</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6942,7 +6942,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Istanbulspor AS </t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6974,7 +6974,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Orenburg Youth </t>
+          <t>FC Orenburg Youth</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -7006,7 +7006,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radunia Stezyca </t>
+          <t>Radunia Stezyca</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">San Lorenzo de Almagro </t>
+          <t>San Lorenzo de Almagro</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7070,7 +7070,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ittihad Kalba U21 </t>
+          <t>Ittihad Kalba U21</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Lokomotiv 1929 Sofia </t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7134,7 +7134,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACF Fiorentina </t>
+          <t>ACF Fiorentina</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7166,7 +7166,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Harju JK Laagri </t>
+          <t>Harju JK Laagri</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">AC Oulu </t>
+          <t>AC Oulu</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7230,7 +7230,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">HJK Helsinki </t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7262,7 +7262,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Slavoj Trebisov </t>
+          <t>FK Slavoj Trebisov</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7294,7 +7294,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSK Povazska Bystrica </t>
+          <t>MSK Povazska Bystrica</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7326,7 +7326,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSK Puchov </t>
+          <t>MSK Puchov</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7358,7 +7358,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Warta Gorzow Wielkopolski </t>
+          <t>Warta Gorzow Wielkopolski</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7390,7 +7390,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Blansko </t>
+          <t>FK Blansko</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7422,7 +7422,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nations FC </t>
+          <t>Nations FC</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7454,7 +7454,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dire Dawa Kenema </t>
+          <t>Dire Dawa Kenema</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7486,7 +7486,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Lecce </t>
+          <t>US Lecce</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Besiktas Istanbul </t>
+          <t>Besiktas Istanbul</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7550,7 +7550,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caykur Rizespor </t>
+          <t>Caykur Rizespor</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gaziantep FK </t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7614,7 +7614,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kayserispor </t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7646,7 +7646,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">MKE Ankaragucu </t>
+          <t>MKE Ankaragucu</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7678,7 +7678,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samsunspor </t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7710,7 +7710,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Braga </t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportivo La Guaira </t>
+          <t>Deportivo La Guaira</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7774,7 +7774,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sporting Cristal </t>
+          <t>Sporting Cristal</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7806,7 +7806,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comunicaciones </t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Alagoano AL </t>
+          <t>CS Alagoano AL</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7870,7 +7870,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volta Redonda FC RJ </t>
+          <t>Volta Redonda FC RJ</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7902,7 +7902,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Municipal Mejillones </t>
+          <t>CD Municipal Mejillones</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7934,7 +7934,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">AS Arapiraquense AL </t>
+          <t>AS Arapiraquense AL</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7966,7 +7966,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ipatinga MG </t>
+          <t>Ipatinga MG</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7998,7 +7998,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazonas FC AM </t>
+          <t>Amazonas FC AM</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8030,7 +8030,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Defensa y Justicia </t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8062,7 +8062,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indy Eleven </t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8094,7 +8094,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loudoun United FC </t>
+          <t>Loudoun United FC</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8126,7 +8126,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pittsburgh Riverhounds </t>
+          <t>Pittsburgh Riverhounds</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8158,7 +8158,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Richmond Kickers </t>
+          <t>Richmond Kickers</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8190,7 +8190,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oakland County FC </t>
+          <t>Oakland County FC</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8222,7 +8222,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maryland Bobcats FC </t>
+          <t>Maryland Bobcats FC</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8254,7 +8254,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">FBC Melgar </t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8286,7 +8286,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSD Independiente del Valle </t>
+          <t>CSD Independiente del Valle</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8318,7 +8318,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cavalry FC </t>
+          <t>Cavalry FC</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8350,7 +8350,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instituto AC Cordoba </t>
+          <t>Instituto AC Cordoba</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8382,7 +8382,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charlotte FC </t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8414,7 +8414,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Cincinnati </t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8446,7 +8446,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inter Miami CF </t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">New York City FC </t>
+          <t>New York City FC</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8510,7 +8510,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toronto FC </t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8542,7 +8542,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tampa Bay Rowdies </t>
+          <t>Tampa Bay Rowdies</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8574,7 +8574,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">South Georgia Tormenta FC </t>
+          <t>South Georgia Tormenta FC</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8606,7 +8606,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Washington Spirit </t>
+          <t>Washington Spirit</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8638,7 +8638,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metropolitanos FC </t>
+          <t>Metropolitanos FC</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8670,7 +8670,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Huntsville City FC </t>
+          <t>Huntsville City FC</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -8702,7 +8702,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Louisiana Krewe FC </t>
+          <t>Louisiana Krewe FC</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8734,7 +8734,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve">San Luis de Quillota </t>
+          <t>San Luis de Quillota</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8766,7 +8766,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlante FC </t>
+          <t>Atlante FC</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8798,7 +8798,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oriente Petrolero </t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8830,7 +8830,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Estudiantes </t>
+          <t>CA Estudiantes</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8862,7 +8862,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austin FC </t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8894,7 +8894,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chicago Fire </t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8926,7 +8926,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Houston Dynamo </t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8958,7 +8958,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minnesota United FC </t>
+          <t>Minnesota United FC</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8990,7 +8990,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Once Caldas </t>
+          <t>CD Once Caldas</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -9022,7 +9022,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">North Texas SC </t>
+          <t>North Texas SC</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9054,7 +9054,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Racing FC Porto Palmeiras </t>
+          <t>Racing FC Porto Palmeiras</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9086,7 +9086,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beijing Institute of Technology </t>
+          <t>Beijing Institute of Technology</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9118,7 +9118,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Seoul </t>
+          <t>FC Seoul</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9150,7 +9150,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gangwon FC </t>
+          <t>Gangwon FC</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9182,7 +9182,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gwangju FC </t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -9214,7 +9214,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheonan City FC </t>
+          <t>Cheonan City FC</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -9246,7 +9246,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seongnam Ilhwa </t>
+          <t>Seongnam Ilhwa</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -9278,7 +9278,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central &amp; Western </t>
+          <t>Central &amp; Western</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -9310,7 +9310,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citizen AA </t>
+          <t>Citizen AA</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -9342,7 +9342,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoi King </t>
+          <t>Hoi King</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9374,7 +9374,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wing Yee Ft </t>
+          <t>Wing Yee Ft</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9406,7 +9406,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yuen Long FC </t>
+          <t>Yuen Long FC</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9438,7 +9438,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tochigi SC </t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9470,7 +9470,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Logan Lightning </t>
+          <t>Logan Lightning</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -9502,7 +9502,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dukla Prague B </t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -9534,7 +9534,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Chlumec Nad Cidlinou </t>
+          <t>FK Chlumec Nad Cidlinou</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -9566,7 +9566,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSK Breclav </t>
+          <t>MSK Breclav</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -9598,7 +9598,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Viktoria Plzen B </t>
+          <t>FC Viktoria Plzen B</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -9630,7 +9630,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kuching City FC </t>
+          <t>Kuching City FC</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -9662,7 +9662,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangxi Hengchen FC </t>
+          <t>Guangxi Hengchen FC</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -9694,7 +9694,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Ural Yekaterinburg </t>
+          <t>FK Ural Yekaterinburg</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9726,7 +9726,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t xml:space="preserve">FSV Gutersloh </t>
+          <t>FSV Gutersloh</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9758,7 +9758,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SG 99 Andernach </t>
+          <t>SG 99 Andernach</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -9790,7 +9790,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t xml:space="preserve">TSG Hoffenheim II </t>
+          <t>TSG Hoffenheim II</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -9822,7 +9822,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t xml:space="preserve">VfL Wolfsburg II </t>
+          <t>VfL Wolfsburg II</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -9854,7 +9854,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genoa CFC </t>
+          <t>Genoa CFC</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -9886,7 +9886,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hellas Verona FC </t>
+          <t>Hellas Verona FC</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -9918,7 +9918,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Torino FC </t>
+          <t>Torino FC</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9950,7 +9950,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Dembava </t>
+          <t>FK Dembava</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9982,7 +9982,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t xml:space="preserve">TSG Hoffenheim </t>
+          <t>TSG Hoffenheim</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -10014,7 +10014,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Slavia Tu Kosice </t>
+          <t>Slavia Tu Kosice</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10046,7 +10046,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t xml:space="preserve">JK Tabasalu </t>
+          <t>JK Tabasalu</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -10078,7 +10078,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tartu JK Welco </t>
+          <t>Tartu JK Welco</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -10110,7 +10110,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Viimsi JK </t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -10142,7 +10142,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t xml:space="preserve">FA Tartu Kalev </t>
+          <t>FA Tartu Kalev</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -10174,7 +10174,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Phoenix Johvi </t>
+          <t>FC Phoenix Johvi</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -10206,7 +10206,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tallinna JK Legion </t>
+          <t>Tallinna JK Legion</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -10238,7 +10238,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tartu JK Tammeka U21 </t>
+          <t>Tartu JK Tammeka U21</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -10270,7 +10270,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suwon FC </t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -10302,7 +10302,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t xml:space="preserve">LNZ Cherkasy </t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -10334,7 +10334,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gyeongnam FC </t>
+          <t>Gyeongnam FC</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -10366,7 +10366,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Izarra </t>
+          <t>CD Izarra</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10398,7 +10398,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t xml:space="preserve">CE Europa </t>
+          <t>CE Europa</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -10430,7 +10430,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avs Futebol Sad </t>
+          <t>Avs Futebol Sad</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -10462,7 +10462,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dinaz Vyshgorod </t>
+          <t>Dinaz Vyshgorod</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10494,7 +10494,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFC Kremin Kremenchuk </t>
+          <t>MFC Kremin Kremenchuk</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -10526,7 +10526,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Friska Viljor FC </t>
+          <t>Friska Viljor FC</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanjong Pagar United FC </t>
+          <t>Tanjong Pagar United FC</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -10590,7 +10590,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Varea </t>
+          <t>CD Varea</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -10622,7 +10622,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las Rozas CF </t>
+          <t>Las Rozas CF</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -10654,7 +10654,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hong Kong Rangers </t>
+          <t>Hong Kong Rangers</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10686,7 +10686,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t xml:space="preserve">RTC FC </t>
+          <t>RTC FC</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10718,7 +10718,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t xml:space="preserve">NK Osijek </t>
+          <t>NK Osijek</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10750,7 +10750,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t xml:space="preserve">PFC Cherno More Varna </t>
+          <t>PFC Cherno More Varna</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -10782,7 +10782,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zamora CF </t>
+          <t>Zamora CF</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -10814,7 +10814,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barracas Central </t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -10846,7 +10846,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Santamarina Tandil </t>
+          <t>CD Santamarina Tandil</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10878,7 +10878,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Circulo Deportivo </t>
+          <t>Club Circulo Deportivo</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10910,7 +10910,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Olimpo </t>
+          <t>Club Olimpo</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -10942,7 +10942,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rapid Bucuresti 1923 </t>
+          <t>Rapid Bucuresti 1923</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -10974,7 +10974,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asociacion Deportiva Tarma </t>
+          <t>Asociacion Deportiva Tarma</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -11006,7 +11006,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Boston River </t>
+          <t>CA Boston River</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -11038,7 +11038,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mushuc Runa SC </t>
+          <t>Mushuc Runa SC</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -11070,7 +11070,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arsenal de Sarandi </t>
+          <t>Arsenal de Sarandi</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -11102,7 +11102,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guillermo Brown </t>
+          <t>Guillermo Brown</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -11134,7 +11134,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Auda </t>
+          <t>FK Auda</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -11166,7 +11166,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t xml:space="preserve">UD Ourense </t>
+          <t>UD Ourense</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -11198,7 +11198,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resende FC RJ </t>
+          <t>Resende FC RJ</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -11230,7 +11230,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t xml:space="preserve">KF Egnatia Rrogozhine </t>
+          <t>KF Egnatia Rrogozhine</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -11262,7 +11262,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgrano de Cordoba </t>
+          <t>Belgrano de Cordoba</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -11294,7 +11294,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t xml:space="preserve">UDA AL </t>
+          <t>UDA AL</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -11326,7 +11326,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vf4 PB </t>
+          <t>Vf4 PB</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -11358,7 +11358,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Killas </t>
+          <t>FC Killas</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -11390,7 +11390,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t xml:space="preserve">MKP Kotwica Kolobrzeg </t>
+          <t>MKP Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -11422,7 +11422,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t xml:space="preserve">Potenza Calcio </t>
+          <t>Potenza Calcio</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -11454,7 +11454,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t xml:space="preserve">SS Monopoli </t>
+          <t>SS Monopoli</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -11486,7 +11486,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Argentino Monte Maiz </t>
+          <t>CD Argentino Monte Maiz</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -11518,7 +11518,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD de Pronunciamiento </t>
+          <t>CD de Pronunciamiento</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -11550,7 +11550,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crucero del Norte </t>
+          <t>Crucero del Norte</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -11582,7 +11582,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linqueno </t>
+          <t>Linqueno</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -11614,7 +11614,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t xml:space="preserve">San Martin de Mendoza </t>
+          <t>San Martin de Mendoza</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -11646,7 +11646,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Atletico Fenix </t>
+          <t>Club Atletico Fenix</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -11678,7 +11678,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Aldosivi </t>
+          <t>CA Aldosivi</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -11710,7 +11710,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Chacarita Juniors </t>
+          <t>CA Chacarita Juniors</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11742,7 +11742,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Defensores Unidos </t>
+          <t>CA Defensores Unidos</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11774,7 +11774,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gimnasia Y Esgrima Mendoza </t>
+          <t>Gimnasia Y Esgrima Mendoza</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11806,7 +11806,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t xml:space="preserve">KS Lechia Gdansk </t>
+          <t>KS Lechia Gdansk</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11838,7 +11838,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t xml:space="preserve">Berazategui </t>
+          <t>Berazategui</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11870,7 +11870,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club El Porvenir </t>
+          <t>Club El Porvenir</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11902,7 +11902,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t xml:space="preserve">General Lamadrid </t>
+          <t>General Lamadrid</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11934,7 +11934,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Justo Jose de Urquiza </t>
+          <t>Justo Jose de Urquiza</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11966,7 +11966,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t xml:space="preserve">Real Pilar FC </t>
+          <t>Real Pilar FC</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11998,7 +11998,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brasiliense FC DF </t>
+          <t>Brasiliense FC DF</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -12030,7 +12030,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nacional AC PR </t>
+          <t>Nacional AC PR</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -12062,7 +12062,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roma </t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -12094,7 +12094,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colon de Santa Fe </t>
+          <t>Colon de Santa Fe</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -12126,7 +12126,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Lorient </t>
+          <t>FC Lorient</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -12158,7 +12158,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Havre AC </t>
+          <t>Le Havre AC</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -12190,7 +12190,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -12222,7 +12222,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lyon </t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -12254,7 +12254,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metz </t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -12286,7 +12286,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monaco </t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -12318,7 +12318,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carabobo FC </t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -12350,7 +12350,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spokane Velocity FC </t>
+          <t>Spokane Velocity FC</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -12382,7 +12382,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t xml:space="preserve">Long Island Rough Riders </t>
+          <t>Long Island Rough Riders</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -12414,7 +12414,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miami AC </t>
+          <t>Miami AC</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -12446,7 +12446,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ferroviario AC CE </t>
+          <t>Ferroviario AC CE</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -12478,7 +12478,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Ska-Khabarovsk </t>
+          <t>FC Ska-Khabarovsk</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -12510,7 +12510,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hertha BSC </t>
+          <t>Hertha BSC</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -12542,7 +12542,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terengganu FC 2 </t>
+          <t>Terengganu FC 2</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -12574,7 +12574,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t xml:space="preserve">PDRM FC U23 </t>
+          <t>PDRM FC U23</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -12606,7 +12606,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incheon Hyundai Steel Red Angels </t>
+          <t>Incheon Hyundai Steel Red Angels</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -12638,7 +12638,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seoul City WFC </t>
+          <t>Seoul City WFC</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -12670,7 +12670,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suwon WFC </t>
+          <t>Suwon WFC</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -12702,7 +12702,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aarhus Fremad 2 </t>
+          <t>Aarhus Fremad 2</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -12734,7 +12734,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mtibwa Sugar FC </t>
+          <t>Mtibwa Sugar FC</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -12766,7 +12766,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t xml:space="preserve">OKS </t>
+          <t>OKS</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -12798,7 +12798,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lyngby BK </t>
+          <t>Lyngby BK</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -12830,7 +12830,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vejle BK </t>
+          <t>Vejle BK</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -12862,7 +12862,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alta IF </t>
+          <t>Alta IF</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -12894,7 +12894,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Gjoevik-Lyn </t>
+          <t>FK Gjoevik-Lyn</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -12926,7 +12926,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t xml:space="preserve">Skedsmo </t>
+          <t>Skedsmo</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -12958,7 +12958,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t xml:space="preserve">PFC Montana 1921 </t>
+          <t>PFC Montana 1921</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -12990,7 +12990,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Baden </t>
+          <t>FC Baden</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -13022,7 +13022,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Sion </t>
+          <t>FC Sion</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -13054,7 +13054,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Stade Nyonnais </t>
+          <t>FC Stade Nyonnais</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -13086,7 +13086,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Vaduz </t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -13118,7 +13118,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Wil 1900 </t>
+          <t>FC Wil 1900</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -13150,7 +13150,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kolbotn </t>
+          <t>Kolbotn</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -13182,7 +13182,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Masry Club </t>
+          <t>Al Masry Club</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -13214,7 +13214,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Van Charentsavan </t>
+          <t>FC Van Charentsavan</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -13246,7 +13246,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t xml:space="preserve">Follo </t>
+          <t>Follo</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -13278,7 +13278,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aasane Fotball 2 </t>
+          <t>Aasane Fotball 2</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -13310,7 +13310,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loddefjord </t>
+          <t>Loddefjord</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -13342,7 +13342,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lokomotiv Oslo </t>
+          <t>Lokomotiv Oslo</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -13374,7 +13374,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanzania Prisons </t>
+          <t>Tanzania Prisons</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -13406,7 +13406,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erbaaspor </t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -13438,7 +13438,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sebat Genclik Spor </t>
+          <t>Sebat Genclik Spor</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -13470,7 +13470,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t xml:space="preserve">SV Bergisch Gladbach 09 </t>
+          <t>SV Bergisch Gladbach 09</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -13502,7 +13502,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Eintracht Rheine </t>
+          <t>FC Eintracht Rheine</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -13534,7 +13534,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t xml:space="preserve">SPVGG Vreden 1921 </t>
+          <t>SPVGG Vreden 1921</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -13566,7 +13566,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t xml:space="preserve">SV Westfalia Rhynern </t>
+          <t>SV Westfalia Rhynern</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -13598,7 +13598,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bourj FC </t>
+          <t>Bourj FC</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -13630,7 +13630,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roea </t>
+          <t>Roea</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -13662,7 +13662,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stabaek Fotball </t>
+          <t>Stabaek Fotball</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -13694,7 +13694,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t xml:space="preserve">SPVG Frechen 20 </t>
+          <t>SPVG Frechen 20</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -13726,7 +13726,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t xml:space="preserve">SV Schermbeck </t>
+          <t>SV Schermbeck</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -13758,7 +13758,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 FC Cologne </t>
+          <t>1 FC Cologne</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -13790,7 +13790,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. FC Nuremberg </t>
+          <t>1. FC Nuremberg</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -13822,7 +13822,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bayer Leverkusen </t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -13854,7 +13854,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t xml:space="preserve">SC Freiburg </t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -13886,7 +13886,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t xml:space="preserve">TSG Hoffenheim W </t>
+          <t>TSG Hoffenheim W</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -13918,7 +13918,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t xml:space="preserve">VfL Wolfsburg W </t>
+          <t>VfL Wolfsburg W</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -13950,7 +13950,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t xml:space="preserve">Silkeborg IF </t>
+          <t>Silkeborg IF</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -13982,7 +13982,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t xml:space="preserve">FAC Wien </t>
+          <t>FAC Wien</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -14014,7 +14014,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Admira Wacker Modling </t>
+          <t>FC Admira Wacker Modling</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -14046,7 +14046,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Dornbirn </t>
+          <t>FC Dornbirn</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -14078,7 +14078,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kapfenberger SV </t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -14110,7 +14110,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t xml:space="preserve">SKN St Polten </t>
+          <t>SKN St Polten</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -14142,7 +14142,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t xml:space="preserve">SKU Amstetten </t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -14174,7 +14174,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sturm Graz (A) </t>
+          <t>Sturm Graz (A)</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -14206,7 +14206,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t xml:space="preserve">SV Lafnitz </t>
+          <t>SV Lafnitz</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -14238,7 +14238,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Tyumen </t>
+          <t>FC Tyumen</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -14270,7 +14270,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flekkeroy IL </t>
+          <t>Flekkeroy IL</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -14302,7 +14302,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kvik Halden FK </t>
+          <t>Kvik Halden FK</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -14334,7 +14334,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stjordals-Blink </t>
+          <t>Stjordals-Blink</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -14366,7 +14366,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vindbjart FK </t>
+          <t>Vindbjart FK</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -14398,7 +14398,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t xml:space="preserve">IF Vestri </t>
+          <t>IF Vestri</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -14430,7 +14430,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t xml:space="preserve">IBV Vestmannaeyjar </t>
+          <t>IBV Vestmannaeyjar</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -14462,7 +14462,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t xml:space="preserve">USI Lupo Martini Wolfsburg </t>
+          <t>USI Lupo Martini Wolfsburg</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -14494,7 +14494,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t xml:space="preserve">07 Vestur Sorvagur </t>
+          <t>07 Vestur Sorvagur</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -14526,7 +14526,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t xml:space="preserve">Florida Elite Sa </t>
+          <t>Florida Elite Sa</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -14558,7 +14558,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportivo Maldonado </t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -14590,7 +14590,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t xml:space="preserve">Athletic Club Sjdr MG </t>
+          <t>Athletic Club Sjdr MG</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -14622,7 +14622,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floresta EC CE </t>
+          <t>Floresta EC CE</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -14654,7 +14654,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mamore MG </t>
+          <t>Mamore MG</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -14686,7 +14686,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sao Paulo FC SP </t>
+          <t>Sao Paulo FC SP</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trem AP </t>
+          <t>Trem AP</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -14750,7 +14750,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tennessee SC </t>
+          <t>Tennessee SC</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -14782,7 +14782,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guarani FC SP </t>
+          <t>Guarani FC SP</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -14814,7 +14814,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Tecnico Universitario </t>
+          <t>CD Tecnico Universitario</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -14846,7 +14846,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t xml:space="preserve">San Martin de Tucuman </t>
+          <t>San Martin de Tucuman</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -14878,7 +14878,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Atletico Rosario Central </t>
+          <t>Club Atletico Rosario Central</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -14910,7 +14910,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t xml:space="preserve">Racing Club Avellaneda </t>
+          <t>Racing Club Avellaneda</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -14942,7 +14942,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t xml:space="preserve">Huachipato </t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -14974,7 +14974,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportes Limache </t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -15006,7 +15006,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mitre Santiago Del Estero </t>
+          <t>Mitre Santiago Del Estero</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -15038,7 +15038,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Cienciano </t>
+          <t>CS Cienciano</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -15070,7 +15070,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t xml:space="preserve">CF Tigres UANL </t>
+          <t>CF Tigres UANL</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -15102,7 +15102,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tigres FC </t>
+          <t>Tigres FC</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -15134,7 +15134,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA San Lorenzo de Almagro </t>
+          <t>CA San Lorenzo de Almagro</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -15166,7 +15166,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estudiantes de La Plata </t>
+          <t>Estudiantes de La Plata</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -15198,7 +15198,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cobresal </t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -15230,7 +15230,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hoang Anh Gia Lai </t>
+          <t>Hoang Anh Gia Lai</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -15262,7 +15262,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tsirang FC </t>
+          <t>Tsirang FC</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -15294,7 +15294,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chungnam Asan FC </t>
+          <t>Chungnam Asan FC</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -15326,7 +15326,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeonnam Dragons </t>
+          <t>Jeonnam Dragons</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -15358,7 +15358,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seoul E-Land FC </t>
+          <t>Seoul E-Land FC</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -15390,7 +15390,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meizhou Hakka </t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -15422,7 +15422,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tottenham </t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -15454,7 +15454,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t xml:space="preserve">AC Nagano Parceiro </t>
+          <t>AC Nagano Parceiro</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -15486,7 +15486,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blaublitz Akita </t>
+          <t>Blaublitz Akita</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -15518,7 +15518,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Ryukyu </t>
+          <t>FC Ryukyu</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -15550,7 +15550,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kashiwa Reysol </t>
+          <t>Kashiwa Reysol</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -15582,7 +15582,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kataller Toyama </t>
+          <t>Kataller Toyama</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -15614,7 +15614,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t xml:space="preserve">Machida Zelvia </t>
+          <t>Machida Zelvia</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -15646,7 +15646,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sagan Tosu </t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -15678,7 +15678,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tokyo Verdy </t>
+          <t>Tokyo Verdy</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -15710,7 +15710,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t xml:space="preserve">V-Varen Nagasaki </t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -15742,7 +15742,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yokohama FC </t>
+          <t>Yokohama FC</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -15774,7 +15774,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valentine FC </t>
+          <t>Valentine FC</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -15806,7 +15806,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t xml:space="preserve">Busan I Park </t>
+          <t>Busan I Park</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gimpo FC </t>
+          <t>Gimpo FC</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -15870,7 +15870,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gyeongnam FC </t>
+          <t>Gyeongnam FC</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -15902,7 +15902,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t xml:space="preserve">K. Khanh Hoa </t>
+          <t>K. Khanh Hoa</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -15934,7 +15934,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ludogorets </t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -15966,7 +15966,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t xml:space="preserve">TJ Start Brno </t>
+          <t>TJ Start Brno</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -15998,7 +15998,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Mladost Doboj Kakanj </t>
+          <t>FK Mladost Doboj Kakanj</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -16030,7 +16030,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t xml:space="preserve">NK Bratstvo Gracanica </t>
+          <t>NK Bratstvo Gracanica</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -16062,7 +16062,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t xml:space="preserve">NK Celik Zenica </t>
+          <t>NK Celik Zenica</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -16094,7 +16094,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denmark </t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -16126,7 +16126,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Jazz </t>
+          <t>FC Jazz</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -16158,7 +16158,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hajer FC Al-Hasa </t>
+          <t>Hajer FC Al-Hasa</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -16190,7 +16190,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t xml:space="preserve">HNK Rijeka </t>
+          <t>HNK Rijeka</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -16222,7 +16222,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Hranice </t>
+          <t>SK Hranice</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -16254,7 +16254,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Famalicao </t>
+          <t>FC Famalicao</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -16286,7 +16286,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t xml:space="preserve">ADO Den Haag </t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -16318,7 +16318,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bryne FK </t>
+          <t>Bryne FK</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -16350,7 +16350,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t xml:space="preserve">Egersunds IK </t>
+          <t>Egersunds IK</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -16382,7 +16382,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongsvinger IL Fotball </t>
+          <t>Kongsvinger IL Fotball</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -16414,7 +16414,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ranheim </t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -16446,7 +16446,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sogndal IL </t>
+          <t>Sogndal IL</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -16478,7 +16478,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIF Sundsvall </t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -16510,7 +16510,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helsingborgs IF </t>
+          <t>Helsingborgs IF</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -16542,7 +16542,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orgryte IS </t>
+          <t>Orgryte IS</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -16574,7 +16574,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osters IF </t>
+          <t>Osters IF</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -16606,7 +16606,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ostersunds FK </t>
+          <t>Ostersunds FK</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -16638,7 +16638,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tampereen Ilves </t>
+          <t>Tampereen Ilves</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -16670,7 +16670,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t xml:space="preserve">GFK Tikvesh 1930 </t>
+          <t>GFK Tikvesh 1930</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -16702,7 +16702,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Karbach </t>
+          <t>FC Karbach</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -16734,7 +16734,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t xml:space="preserve">FV Dudenhofen </t>
+          <t>FV Dudenhofen</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -16766,7 +16766,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schwarz-Weiss Essen </t>
+          <t>Schwarz-Weiss Essen</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -16798,7 +16798,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Paranaense PR </t>
+          <t>CA Paranaense PR</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -16830,7 +16830,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceara SC CE </t>
+          <t>Ceara SC CE</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -16862,7 +16862,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t xml:space="preserve">CR Flamengo RJ </t>
+          <t>CR Flamengo RJ</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -16894,7 +16894,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t xml:space="preserve">RB Bragantino SP </t>
+          <t>RB Bragantino SP</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -16926,7 +16926,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marcílio Dias U20 </t>
+          <t>Marcílio Dias U20</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -16958,7 +16958,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boca Juniors </t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -16990,7 +16990,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Belgrano </t>
+          <t>CA Belgrano</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -17022,7 +17022,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t xml:space="preserve">LR Vicenza </t>
+          <t>LR Vicenza</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -17054,7 +17054,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argentino de Quilmes </t>
+          <t>Argentino de Quilmes</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -17086,7 +17086,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Claypole </t>
+          <t>CA Claypole</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -17118,7 +17118,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yupanqui </t>
+          <t>Yupanqui</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17150,7 +17150,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atalanta </t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -17182,7 +17182,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t xml:space="preserve">St. Francis FC </t>
+          <t>St. Francis FC</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -17214,7 +17214,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Real Tomayapo </t>
+          <t>CD Real Tomayapo</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17246,7 +17246,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t xml:space="preserve">SC Corinthians SP </t>
+          <t>SC Corinthians SP</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -17278,7 +17278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t xml:space="preserve">A-League All Stars </t>
+          <t>A-League All Stars</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -17310,7 +17310,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hubei Istar </t>
+          <t>Hubei Istar</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -17342,7 +17342,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casuarina FC </t>
+          <t>Casuarina FC</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -17374,7 +17374,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sydney FC </t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -17406,7 +17406,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadmeadow Magic FC </t>
+          <t>Broadmeadow Magic FC</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -17438,7 +17438,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t xml:space="preserve">South Adelaide FC </t>
+          <t>South Adelaide FC</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -17470,7 +17470,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ulsan Citizen FC </t>
+          <t>Ulsan Citizen FC</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -17502,7 +17502,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bangladesh Police FC </t>
+          <t>Bangladesh Police FC</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -17534,7 +17534,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rahmatganj MFS </t>
+          <t>Rahmatganj MFS</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -17566,7 +17566,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t xml:space="preserve">Changnyeong WFC </t>
+          <t>Changnyeong WFC</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -17598,7 +17598,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riverside Olympic FC </t>
+          <t>Riverside Olympic FC</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -17630,7 +17630,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brisbane City FC </t>
+          <t>Brisbane City FC</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -17662,7 +17662,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t xml:space="preserve">Redlands United FC </t>
+          <t>Redlands United FC</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -17694,7 +17694,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bentleigh Greens </t>
+          <t>Bentleigh Greens</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -17726,7 +17726,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t xml:space="preserve">Port Darwin FC </t>
+          <t>Port Darwin FC</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -17758,7 +17758,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terengganu FC </t>
+          <t>Terengganu FC</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -17790,7 +17790,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t xml:space="preserve">LNZ Cherkasy </t>
+          <t>LNZ Cherkasy</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -17822,7 +17822,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Afula FC </t>
+          <t>Hapoel Afula FC</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -17854,7 +17854,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Nir Ramat Hasharon FC </t>
+          <t>Hapoel Nir Ramat Hasharon FC</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -17886,7 +17886,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oman Club </t>
+          <t>Oman Club</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -17918,7 +17918,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Liepaja </t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -17950,7 +17950,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mkp Carina Gubin </t>
+          <t>Mkp Carina Gubin</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -17982,7 +17982,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t xml:space="preserve">Be1 Nfa </t>
+          <t>Be1 Nfa</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -18014,7 +18014,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t xml:space="preserve">OPS Oulu </t>
+          <t>OPS Oulu</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -18046,7 +18046,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t xml:space="preserve">HNK Gorica </t>
+          <t>HNK Gorica</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -18078,7 +18078,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enppi Club </t>
+          <t>Enppi Club</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -18110,7 +18110,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pharco FC </t>
+          <t>Pharco FC</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18142,7 +18142,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t xml:space="preserve">FA Povltavska </t>
+          <t>FA Povltavska</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -18174,7 +18174,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Kraluv Dvur </t>
+          <t>FK Kraluv Dvur</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -18206,7 +18206,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t xml:space="preserve">GKS Wikielec </t>
+          <t>GKS Wikielec</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -18238,7 +18238,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Vitebsk </t>
+          <t>FC Vitebsk</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -18270,7 +18270,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al-Sadd SC </t>
+          <t>Al-Sadd SC</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -18302,7 +18302,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Suduva Marijampole </t>
+          <t>FK Suduva Marijampole</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -18334,7 +18334,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Wehdat Jor </t>
+          <t>Al Wehdat Jor</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -18366,7 +18366,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Kiffen </t>
+          <t>FC Kiffen</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -18398,7 +18398,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al-Arabi (KW) </t>
+          <t>Al-Arabi (KW)</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -18430,7 +18430,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nykoebing FC </t>
+          <t>Nykoebing FC</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -18462,7 +18462,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atalanta BC </t>
+          <t>Atalanta BC</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -18494,7 +18494,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Javor Ivanjica </t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -18526,7 +18526,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Novi Pazar </t>
+          <t>FK Novi Pazar</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -18558,7 +18558,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Kufstein </t>
+          <t>FC Kufstein</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -18590,7 +18590,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alanyaspor </t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -18622,7 +18622,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t xml:space="preserve">IF Elfsborg </t>
+          <t>IF Elfsborg</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -18654,7 +18654,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malmo </t>
+          <t>Malmo</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -18686,7 +18686,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bodoe/Glimt </t>
+          <t>Bodoe/Glimt</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -18718,7 +18718,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Mioveni </t>
+          <t>CS Mioveni</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -18750,7 +18750,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hillerod Fodbold </t>
+          <t>Hillerod Fodbold</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -18782,7 +18782,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hobro IK </t>
+          <t>Hobro IK</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -18814,7 +18814,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vendsyssel FF </t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -18846,7 +18846,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t xml:space="preserve">AB Gladsaxe </t>
+          <t>AB Gladsaxe</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -18878,7 +18878,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emirates Club </t>
+          <t>Emirates Club</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -18910,7 +18910,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orebro Syrianska IF </t>
+          <t>Orebro Syrianska IF</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -18942,7 +18942,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t xml:space="preserve">Torns IF </t>
+          <t>Torns IF</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -18974,7 +18974,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grebbestads IF </t>
+          <t>Grebbestads IF</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -19006,7 +19006,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nosaby IF </t>
+          <t>Nosaby IF</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -19038,7 +19038,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASK Voitsberg </t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -19070,7 +19070,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vorwarts Steyr </t>
+          <t>Vorwarts Steyr</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -19102,7 +19102,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Marchfeld Donauauen </t>
+          <t>FC Marchfeld Donauauen</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -19134,7 +19134,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tvaakers IF </t>
+          <t>Tvaakers IF</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -19166,7 +19166,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edgeworth FC </t>
+          <t>Edgeworth FC</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -19198,7 +19198,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maitland FC </t>
+          <t>Maitland FC</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -19230,7 +19230,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clarence Zebras FC </t>
+          <t>Clarence Zebras FC</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -19262,7 +19262,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ehime FC </t>
+          <t>Ehime FC</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -19294,7 +19294,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -19326,7 +19326,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jubilo Iwata </t>
+          <t>Jubilo Iwata</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -19358,7 +19358,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeonbuk Hyundai Motors </t>
+          <t>Jeonbuk Hyundai Motors</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -19390,7 +19390,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fujieda MYFC </t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -19422,7 +19422,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t xml:space="preserve">V-Varen Nagasaki </t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -19454,7 +19454,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avondale FC </t>
+          <t>Avondale FC</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -19486,7 +19486,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canberra Olympic </t>
+          <t>Canberra Olympic</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -19518,7 +19518,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cooma Tigers </t>
+          <t>Cooma Tigers</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -19550,7 +19550,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t xml:space="preserve">AC Nagano Parceiro </t>
+          <t>AC Nagano Parceiro</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -19582,7 +19582,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t xml:space="preserve">JEF United Ichihara Chiba </t>
+          <t>JEF United Ichihara Chiba</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -19614,7 +19614,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t xml:space="preserve">Omiya Ardija Ventus </t>
+          <t>Omiya Ardija Ventus</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -19646,7 +19646,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sanfrecce Hiroshima Regina </t>
+          <t>Sanfrecce Hiroshima Regina</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -19678,7 +19678,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urawa Red Diamonds </t>
+          <t>Urawa Red Diamonds</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -19710,7 +19710,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Campbelltown City SC </t>
+          <t>Campbelltown City SC</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -19742,7 +19742,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para Hills Knights SC </t>
+          <t>Para Hills Knights SC</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -19774,7 +19774,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box Hill United </t>
+          <t>Box Hill United</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -19806,7 +19806,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cooks Hill United </t>
+          <t>Cooks Hill United</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -19838,7 +19838,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t xml:space="preserve">Queensland Lions FC </t>
+          <t>Queensland Lions FC</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -19870,7 +19870,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kawasaki Frontale </t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -19902,7 +19902,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niigata Albirex </t>
+          <t>Niigata Albirex</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -19934,7 +19934,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ventforet Kofu </t>
+          <t>Ventforet Kofu</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -19966,7 +19966,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t xml:space="preserve">Port Melbourne Sharks </t>
+          <t>Port Melbourne Sharks</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -19998,7 +19998,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balcatta </t>
+          <t>Balcatta</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -20030,7 +20030,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floreat Athena </t>
+          <t>Floreat Athena</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -20062,7 +20062,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fremantle City </t>
+          <t>Fremantle City</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -20094,7 +20094,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inglewood United </t>
+          <t>Inglewood United</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -20126,7 +20126,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perth Glory FC </t>
+          <t>Perth Glory FC</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -20158,7 +20158,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t xml:space="preserve">Perth Redstar FC </t>
+          <t>Perth Redstar FC</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -20190,7 +20190,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daegu FC II </t>
+          <t>Daegu FC II</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -20222,7 +20222,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yanbian Longding </t>
+          <t>Yanbian Longding</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -20254,7 +20254,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taian Tiankuang </t>
+          <t>Taian Tiankuang</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -20286,7 +20286,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meralco Manila </t>
+          <t>Meralco Manila</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -20318,7 +20318,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boroondara Eagles </t>
+          <t>Boroondara Eagles</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -20350,7 +20350,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ulsan Hyundai FC </t>
+          <t>Ulsan Hyundai FC</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -20382,7 +20382,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t xml:space="preserve">APIA Leichhardt </t>
+          <t>APIA Leichhardt</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -20414,7 +20414,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t xml:space="preserve">North Eastern Metrostars SC </t>
+          <t>North Eastern Metrostars SC</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -20446,7 +20446,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chuncheon FC </t>
+          <t>Chuncheon FC</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -20478,7 +20478,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caboolture FC </t>
+          <t>Caboolture FC</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -20510,7 +20510,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t xml:space="preserve">Southside Eagles </t>
+          <t>Southside Eagles</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -20542,7 +20542,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taichung Blue Whale </t>
+          <t>Taichung Blue Whale</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -20574,7 +20574,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t xml:space="preserve">Altona Magic SC </t>
+          <t>Altona Magic SC</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -20606,7 +20606,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves FC </t>
+          <t>Wolves FC</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -20638,7 +20638,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Jablonec B </t>
+          <t>FK Jablonec B</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -20670,7 +20670,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide Olympic FC </t>
+          <t>Adelaide Olympic FC</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -20702,7 +20702,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Dynamo Ceske Budejovice B </t>
+          <t>SK Dynamo Ceske Budejovice B</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -20734,7 +20734,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Sparta Kolin </t>
+          <t>SK Sparta Kolin</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -20766,7 +20766,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dandenong Thunder </t>
+          <t>Dandenong Thunder</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -20798,7 +20798,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t xml:space="preserve">St George Saints FC </t>
+          <t>St George Saints FC</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -20830,7 +20830,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eastern Suburbs FC </t>
+          <t>Eastern Suburbs FC</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -20862,7 +20862,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jagiellonia II Bialystok </t>
+          <t>Jagiellonia II Bialystok</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -20894,7 +20894,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t xml:space="preserve">DH Cebu FC </t>
+          <t>DH Cebu FC</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -20926,7 +20926,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lions FC </t>
+          <t>Lions FC</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -20958,7 +20958,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t xml:space="preserve">Broadbeach United </t>
+          <t>Broadbeach United</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -20990,7 +20990,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boca Juniors </t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -21022,7 +21022,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miami FC </t>
+          <t>Miami FC</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -21054,7 +21054,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chattanooga FC </t>
+          <t>Chattanooga FC</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -21086,7 +21086,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charlotte Eagles </t>
+          <t>Charlotte Eagles</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -21118,7 +21118,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fort Wayne FC </t>
+          <t>Fort Wayne FC</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -21150,7 +21150,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t xml:space="preserve">Miami AC </t>
+          <t>Miami AC</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -21182,7 +21182,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t xml:space="preserve">RKC Soccer Club </t>
+          <t>RKC Soccer Club</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -21214,7 +21214,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t xml:space="preserve">South Carolina United FC </t>
+          <t>South Carolina United FC</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -21246,7 +21246,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 FC Kaiserslautern </t>
+          <t>1 FC Kaiserslautern</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -21278,7 +21278,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelsior Rotterdam </t>
+          <t>Excelsior Rotterdam</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -21310,7 +21310,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argentinos Juniors </t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -21342,7 +21342,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liverpool Montevideo </t>
+          <t>Liverpool Montevideo</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -21374,7 +21374,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agropecuario Argentino </t>
+          <t>Agropecuario Argentino</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -21406,7 +21406,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t xml:space="preserve">Americano FC RJ </t>
+          <t>Americano FC RJ</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -21438,7 +21438,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goncalense FC RJ </t>
+          <t>Goncalense FC RJ</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -21470,7 +21470,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Cremonese </t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -21502,7 +21502,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oud-Heverlee Leuven </t>
+          <t>Oud-Heverlee Leuven</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -21534,7 +21534,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yellow-Red KV Mechelen </t>
+          <t>Yellow-Red KV Mechelen</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -21566,7 +21566,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASD Torres Sassari </t>
+          <t>ASD Torres Sassari</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -21598,7 +21598,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calcio Padova </t>
+          <t>Calcio Padova</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -21630,7 +21630,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrarese Calcio </t>
+          <t>Carrarese Calcio</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -21662,7 +21662,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Avellino </t>
+          <t>US Avellino</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -21694,7 +21694,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Lugano </t>
+          <t>FC Lugano</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -21726,7 +21726,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC St. Gallen 1879 </t>
+          <t>FC St. Gallen 1879</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -21758,7 +21758,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t xml:space="preserve">Young Boys Bern </t>
+          <t>Young Boys Bern</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -21790,7 +21790,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciudad de Bolivar </t>
+          <t>Ciudad de Bolivar</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -21822,7 +21822,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t xml:space="preserve">Independiente de Chivilcoy </t>
+          <t>Independiente de Chivilcoy</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -21854,7 +21854,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Villa San Carlos </t>
+          <t>CA Villa San Carlos</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -21886,7 +21886,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD UAI Urquiza </t>
+          <t>CD UAI Urquiza</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -21918,7 +21918,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Atletico Acassuso </t>
+          <t>Club Atletico Acassuso</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -21950,7 +21950,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSD Flandria </t>
+          <t>CSD Flandria</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -21982,7 +21982,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportivo Merlo </t>
+          <t>Deportivo Merlo</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -22014,7 +22014,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t xml:space="preserve">Longford Town FC </t>
+          <t>Longford Town FC</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -22046,7 +22046,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Claypole </t>
+          <t>CA Claypole</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -22078,7 +22078,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t xml:space="preserve">Audax Rio EC RJ </t>
+          <t>Audax Rio EC RJ</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -22110,7 +22110,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t xml:space="preserve">Milan </t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -22142,7 +22142,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t xml:space="preserve">Portimonense SC </t>
+          <t>Portimonense SC</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -22174,7 +22174,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t xml:space="preserve">Real Madrid </t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -22206,7 +22206,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lyon </t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -22238,7 +22238,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportes Iquique </t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -22270,7 +22270,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Sarmiento de Resistencia </t>
+          <t>CA Sarmiento de Resistencia</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -22302,7 +22302,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t xml:space="preserve">Def. de Belgrano de Villa Ramallo </t>
+          <t>Def. de Belgrano de Villa Ramallo</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -22334,7 +22334,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportes Magallanes </t>
+          <t>Deportes Magallanes</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -22366,7 +22366,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Universitario de Vinto </t>
+          <t>FC Universitario de Vinto</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -22398,7 +22398,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t xml:space="preserve">AA Altos PI </t>
+          <t>AA Altos PI</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -22430,7 +22430,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Patrocinense MG </t>
+          <t>CA Patrocinense MG</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -22462,7 +22462,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Atletico Cearense CE </t>
+          <t>FC Atletico Cearense CE</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -22494,7 +22494,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t xml:space="preserve">Petrolina PE </t>
+          <t>Petrolina PE</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -22526,7 +22526,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t xml:space="preserve">SD Juazeirense BA </t>
+          <t>SD Juazeirense BA</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -22558,7 +22558,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valur Reykjavik </t>
+          <t>Valur Reykjavik</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -22590,7 +22590,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rhode Island FC </t>
+          <t>Rhode Island FC</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -22622,7 +22622,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comerciantes Unidos </t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -22654,7 +22654,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportivo Garcilaso </t>
+          <t>Deportivo Garcilaso</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -22686,7 +22686,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t xml:space="preserve">Universitario de Deportes </t>
+          <t>Universitario de Deportes</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -22718,7 +22718,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t xml:space="preserve">AD Confianca SE </t>
+          <t>AD Confianca SE</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -22750,7 +22750,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nautico PE </t>
+          <t>Nautico PE</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -22782,7 +22782,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deportes Valdivia </t>
+          <t>Deportes Valdivia</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -22814,7 +22814,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Esportiva AL </t>
+          <t>CS Esportiva AL</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -22846,7 +22846,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comerciantes FC </t>
+          <t>Comerciantes FC</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -22878,7 +22878,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newell's Old Boys </t>
+          <t>Newell's Old Boys</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -22910,7 +22910,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pirata FC </t>
+          <t>Pirata FC</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -22942,7 +22942,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t xml:space="preserve">AFC Ann Arbor </t>
+          <t>AFC Ann Arbor</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -22974,7 +22974,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atletico de Rafaela </t>
+          <t>Atletico de Rafaela</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -23006,7 +23006,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Marathon San Pedro Sula </t>
+          <t>CD Marathon San Pedro Sula</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -23038,7 +23038,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tacuary Asuncion </t>
+          <t>Tacuary Asuncion</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -23070,7 +23070,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Bolivar </t>
+          <t>Club Bolivar</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -23102,7 +23102,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vancouver Langley FC </t>
+          <t>Vancouver Langley FC</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -23134,7 +23134,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vissel Kobe </t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -23166,7 +23166,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blaublitz Akita </t>
+          <t>Blaublitz Akita</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -23198,7 +23198,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iwaki FC </t>
+          <t>Iwaki FC</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -23230,7 +23230,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oita Trinita </t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -23262,7 +23262,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roasso Kumamoto </t>
+          <t>Roasso Kumamoto</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -23294,7 +23294,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shimizu S-Pulse </t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -23326,7 +23326,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vegalta Sendai </t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -23358,7 +23358,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oakleigh Cannons </t>
+          <t>Oakleigh Cannons</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -23390,7 +23390,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canberra Croatia FC </t>
+          <t>Canberra Croatia FC</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -23422,7 +23422,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuggeranong Utd </t>
+          <t>Tuggeranong Utd</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -23454,7 +23454,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rockdale Ilinden FC </t>
+          <t>Rockdale Ilinden FC</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -23486,7 +23486,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sydney United </t>
+          <t>Sydney United</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -23518,7 +23518,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wollongong Wolves FC </t>
+          <t>Wollongong Wolves FC</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -23550,7 +23550,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brisbane Roar FC </t>
+          <t>Brisbane Roar FC</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -23582,7 +23582,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t xml:space="preserve">Busan Transportation Corporation FC </t>
+          <t>Busan Transportation Corporation FC</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -23614,7 +23614,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siheung Citizen FC </t>
+          <t>Siheung Citizen FC</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -23646,7 +23646,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunshine Coast Wanderers FC </t>
+          <t>Sunshine Coast Wanderers FC</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -23678,7 +23678,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cerezo Osaka </t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -23710,7 +23710,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Tokyo </t>
+          <t>FC Tokyo</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -23742,7 +23742,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nagoya Grampus </t>
+          <t>Nagoya Grampus</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -23774,7 +23774,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t xml:space="preserve">South Melbourne FC </t>
+          <t>South Melbourne FC</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -23806,7 +23806,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Mokpo </t>
+          <t>FC Mokpo</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -23838,7 +23838,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t xml:space="preserve">St George Willawong FC </t>
+          <t>St George Willawong FC</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -23870,7 +23870,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urawa Red Diamonds </t>
+          <t>Urawa Red Diamonds</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -23902,7 +23902,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gold Coast United FC </t>
+          <t>Gold Coast United FC</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -23934,7 +23934,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t xml:space="preserve">Langfang Glory City FC </t>
+          <t>Langfang Glory City FC</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -23966,7 +23966,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t xml:space="preserve">Golik North District </t>
+          <t>Golik North District</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -23998,7 +23998,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hong Kong FC </t>
+          <t>Hong Kong FC</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -24030,7 +24030,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kitchee SC </t>
+          <t>Kitchee SC</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -24062,7 +24062,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resources Capital FC </t>
+          <t>Resources Capital FC</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -24094,7 +24094,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daegu FC </t>
+          <t>Daegu FC</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -24126,7 +24126,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheongju FC </t>
+          <t>Cheongju FC</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -24158,7 +24158,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dalian Zhixing FC </t>
+          <t>Dalian Zhixing FC</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -24190,7 +24190,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volos NPS </t>
+          <t>Volos NPS</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -24222,7 +24222,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eastern Suburbs FC </t>
+          <t>Eastern Suburbs FC</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -24254,7 +24254,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Hradec Kralove B </t>
+          <t>FC Hradec Kralove B</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -24286,7 +24286,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Mlada Boleslav B </t>
+          <t>FK Mlada Boleslav B</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -24318,7 +24318,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Pardubice B </t>
+          <t>FK Pardubice B</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -24350,7 +24350,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Velke Mezirici </t>
+          <t>FC Velke Mezirici</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -24382,7 +24382,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangxi Dark Horse Junior </t>
+          <t>Jiangxi Dark Horse Junior</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -24414,7 +24414,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t xml:space="preserve">Real Murcia B </t>
+          <t>Real Murcia B</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -24446,7 +24446,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Elva </t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -24478,7 +24478,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Tallinn </t>
+          <t>FC Tallinn</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -24510,7 +24510,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Basconia </t>
+          <t>CD Basconia</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -24542,7 +24542,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Kuressaare U21 </t>
+          <t>FC Kuressaare U21</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -24574,7 +24574,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Phoenix Johvi </t>
+          <t>FC Phoenix Johvi</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -24606,7 +24606,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t xml:space="preserve">JK Narva Trans </t>
+          <t>JK Narva Trans</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sichuan Jiuniu </t>
+          <t>Sichuan Jiuniu</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -24670,7 +24670,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeju United FC </t>
+          <t>Jeju United FC</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -24702,7 +24702,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seongnam Ilhwa </t>
+          <t>Seongnam Ilhwa</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -24734,7 +24734,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lusitania FC Lourosa </t>
+          <t>Lusitania FC Lourosa</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -24766,7 +24766,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanjong Pagar United FC </t>
+          <t>Tanjong Pagar United FC</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -24798,7 +24798,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t xml:space="preserve">RC Celta de Vigo C </t>
+          <t>RC Celta de Vigo C</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -24830,7 +24830,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t xml:space="preserve">RCD Mallorca B </t>
+          <t>RCD Mallorca B</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -24862,7 +24862,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuarte CD </t>
+          <t>Cuarte CD</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -24894,7 +24894,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sporting Gijon B </t>
+          <t>Sporting Gijon B</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -24926,7 +24926,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bangor GG FC </t>
+          <t>Bangor GG FC</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -24952,6 +24952,1926 @@
       <c r="H766" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>CA Independiente Avellaneda</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D767" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E767" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="F767" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="G767" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>CD Once Caldas</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Tolima</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D768" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F768" t="n">
+        <v>1.3275</v>
+      </c>
+      <c r="G768" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Independiente Santa Fe</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD La Equidad</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D769" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E769" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="F769" t="n">
+        <v>1.016666666666667</v>
+      </c>
+      <c r="G769" t="n">
+        <v>0.6633333333333334</v>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Houston Dynamo 2</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tacoma Defiance</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D770" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F770" t="n">
+        <v>1.766666666666667</v>
+      </c>
+      <c r="G770" t="n">
+        <v>0.7600000000000001</v>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps FC II</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Los Angeles Galaxy II</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D771" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E771" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F771" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="G771" t="n">
+        <v>1.2875</v>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Capital FC</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tacoma Stars</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D772" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E772" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F772" t="n">
+        <v>1</v>
+      </c>
+      <c r="G772" t="n">
+        <v>1</v>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Patuxent Football Athletics</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Christos FC</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D773" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E773" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F773" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G773" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>River Light FC</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St Charles FC</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D774" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E774" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F774" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G774" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Orense SC</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cumbaya FC</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D775" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E775" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G775" t="n">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>CS Cerrito</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uruguay Montevideo FC</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D776" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E776" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G776" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Strongest</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D777" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E777" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F777" t="n">
+        <v>1.2275</v>
+      </c>
+      <c r="G777" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Portuguesa FC</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carabobo FC</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D778" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E778" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F778" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G778" t="n">
+        <v>0.9674999999999999</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Colorado Rapids 2</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minnesota United FC 2</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D779" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E779" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F779" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="G779" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>AC Houston Sur</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brazos Valley Cavalry FC</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D780" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E780" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G780" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>CD Santa Cruz</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Limache</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D781" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E781" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cruz Azul</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D782" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E782" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G782" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Irvine Zeta FC</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Capo FC</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D783" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E783" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0.5866666666666667</v>
+      </c>
+      <c r="G783" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Kuching City U23</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Negeri Sembilan U23</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D784" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E784" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F784" t="n">
+        <v>1.5825</v>
+      </c>
+      <c r="G784" t="n">
+        <v>1.5975</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Bucheon FC</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chungnam Asan FC</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D785" t="n">
+        <v>3</v>
+      </c>
+      <c r="E785" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1</v>
+      </c>
+      <c r="G785" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>FC Lahti</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seinajoen JK</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D786" t="n">
+        <v>2</v>
+      </c>
+      <c r="E786" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F786" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G786" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Vaasan Palloseura</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Inter Turku</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D787" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E787" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F787" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G787" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>FC KTP Kotka</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KaPa Kapylan Pallo</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D788" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E788" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G788" t="n">
+        <v>4.815</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>PK-35 Helsinki</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SalPa</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D789" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F789" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G789" t="n">
+        <v>1.5675</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Al Ittihad Al Sakandary</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zamalek SC</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D790" t="n">
+        <v>2</v>
+      </c>
+      <c r="E790" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F790" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G790" t="n">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Kría</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Árborg</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D791" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E791" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F791" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G791" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Union Comercio</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Cienciano</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D792" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E792" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F792" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G792" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Santos FC Nasca</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDU San Martin</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D793" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E793" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G793" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Defensores de Belgrano</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Aldosivi</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D794" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E794" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F794" t="n">
+        <v>1.396666666666667</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1.493333333333333</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Union de Santa Fe</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Barracas Central</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="D795" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E795" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F795" t="n">
+        <v>0.5049999999999999</v>
+      </c>
+      <c r="G795" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Coritiba FC PR</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Operario Ferroviario EC PR</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D796" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E796" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F796" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G796" t="n">
+        <v>0</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>AC Barnechea</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Universidad de Concepcion</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D797" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E797" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G797" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Trem AP</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rio Branco FC AC</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D798" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E798" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="G798" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>San Marcos de Arica</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Luis de Quillota</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D799" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E799" t="n">
+        <v>1</v>
+      </c>
+      <c r="F799" t="n">
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="G799" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>CF Monterrey</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club America</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D800" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F800" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="G800" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Southside Eagles</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Capalaba Bulldogs</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D801" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F801" t="n">
+        <v>2.676666666666667</v>
+      </c>
+      <c r="G801" t="n">
+        <v>0.5266666666666667</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Tsirang FC</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paro FC</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>22</v>
+      </c>
+      <c r="D802" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E802" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="F802" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="G802" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Gimcheon Sangmu FC</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Seoul</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D803" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E803" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F803" t="n">
+        <v>1.3525</v>
+      </c>
+      <c r="G803" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Gwangju FC</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pohang Steelers FC</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D804" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E804" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F804" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="G804" t="n">
+        <v>1.4225</v>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>FC Samgurali Tskaltubo</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D805" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E805" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F805" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G805" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Ohud Medina</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Taraji Club</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D806" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E806" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F806" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G806" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>SJK Akatemia</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mikkelin Palloilijat</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D807" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E807" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F807" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G807" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>FC Telavi</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Samtredia</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D808" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E808" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F808" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G808" t="n">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>AL Jabalain FC</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Batin</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D809" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E809" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F809" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G809" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Malmo</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IF Elfsborg</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D810" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E810" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F810" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G810" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>IK Start</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sogndal IL</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D811" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E811" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F811" t="n">
+        <v>0.7775</v>
+      </c>
+      <c r="G811" t="n">
+        <v>0.7449999999999999</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Degerfors IF</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Varbergs BoIS</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D812" t="n">
+        <v>5</v>
+      </c>
+      <c r="E812" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F812" t="n">
+        <v>2.1325</v>
+      </c>
+      <c r="G812" t="n">
+        <v>1.0275</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>TSV Hartberg</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Austria Wien</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D813" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F813" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="G813" t="n">
+        <v>1.6575</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Excelsior Rotterdam</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D814" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E814" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F814" t="n">
+        <v>2.466666666666666</v>
+      </c>
+      <c r="G814" t="n">
+        <v>1.223333333333333</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>AL Arabi (SA)</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al Bukiryah</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D815" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E815" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F815" t="n">
+        <v>2.828333333333334</v>
+      </c>
+      <c r="G815" t="n">
+        <v>0.9983333333333334</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>AL Faisaly FC</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Orobah FC</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D816" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F816" t="n">
+        <v>1.231428571428571</v>
+      </c>
+      <c r="G816" t="n">
+        <v>1.447142857142857</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>CA Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fus Fath Union Sportive Rabat</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D817" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G817" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>Ittihad Tanger</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Raja Casablanca Athletic</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D818" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E818" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.7225</v>
+      </c>
+      <c r="G818" t="n">
+        <v>1.2425</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Mouloudia Club of Oujda</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D819" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E819" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F819" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="G819" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>Rsb Berkane</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D820" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E820" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F820" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G820" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>SV Wehen Wiesbaden</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D821" t="n">
+        <v>4</v>
+      </c>
+      <c r="E821" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F821" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G821" t="n">
+        <v>1.2925</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>US Avellino</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LR Vicenza</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D822" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E822" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F822" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G822" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Atletico Mineiro MG</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caracas FC</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D823" t="n">
+        <v>24</v>
+      </c>
+      <c r="E823" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>CD Junior FC</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Botafogo FR RJ</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D824" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G824" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Universitario de Deportes</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D825" t="n">
+        <v>7</v>
+      </c>
+      <c r="E825" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F825" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="G825" t="n">
+        <v>0.8019999999999999</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Amazonas FC AM</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mirassol FC SP</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D826" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F826" t="n">
+        <v>1.626666666666667</v>
+      </c>
+      <c r="G826" t="n">
+        <v>1</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>

--- a/ml_fb.xlsx
+++ b/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H826"/>
+  <dimension ref="A1:H904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26875,6 +26875,2502 @@
         </is>
       </c>
     </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santos FC SP </t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Botafogo FC SP</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D827" t="n">
+        <v>9</v>
+      </c>
+      <c r="E827" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F827" t="n">
+        <v>1.353333333333333</v>
+      </c>
+      <c r="G827" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botafogo FC PB </t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Athletic Club Sjdr MG</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D828" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E828" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G828" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Renaux SC </t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Camboriu FC SC</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D829" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E829" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F829" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G829" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentina </t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Costa Rica</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D830" t="n">
+        <v>5</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F830" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G830" t="n">
+        <v>1.2125</v>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSD Rangers </t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Recoleta</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E831" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G831" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Operario Ferroviario EC PR </t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amazonas FC AM</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D832" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F832" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G832" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agropecuario Argentino </t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA All Boys</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D833" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E833" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F833" t="n">
+        <v>0.6866666666666666</v>
+      </c>
+      <c r="G833" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Defensa y Justicia </t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Independiente Avellaneda</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D834" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E834" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="F834" t="n">
+        <v>0.7699999999999999</v>
+      </c>
+      <c r="G834" t="n">
+        <v>1.346666666666667</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Union San Felipe </t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Marcos de Arica</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D835" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F835" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G835" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Latvia </t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Slovenia</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>41</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E836" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="F836" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="G836" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KuPS U20 </t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlantis FC U20</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D837" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E837" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F837" t="n">
+        <v>2.465</v>
+      </c>
+      <c r="G837" t="n">
+        <v>1.4825</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slovenia </t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Armenia</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D838" t="n">
+        <v>8</v>
+      </c>
+      <c r="E838" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F838" t="n">
+        <v>1.156666666666667</v>
+      </c>
+      <c r="G838" t="n">
+        <v>1.343333333333333</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PeKa </t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Plaani</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E839" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F839" t="n">
+        <v>3.2475</v>
+      </c>
+      <c r="G839" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hammarby Talang FF </t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sollentuna FK</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D840" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E840" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F840" t="n">
+        <v>1.406666666666667</v>
+      </c>
+      <c r="G840" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LPS </t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIFK</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D841" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E841" t="n">
+        <v>4</v>
+      </c>
+      <c r="F841" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="G841" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barracas Central </t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Huracan</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D842" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E842" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F842" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="G842" t="n">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Progreso </t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Largo FC</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E843" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F843" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G843" t="n">
+        <v>0.6633333333333333</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austria </t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Serbia</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D844" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E844" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F844" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="G844" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ireland </t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hungary</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D845" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E845" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F845" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="G845" t="n">
+        <v>0.8177777777777777</v>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Boston River </t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Nacional de Football</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D846" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E846" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F846" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="G846" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Guarani Asuncion </t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS 2 de Mayo</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D847" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E847" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F847" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="G847" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Banfield </t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D848" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E848" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0.7775</v>
+      </c>
+      <c r="G848" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brazil </t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jamaica</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D849" t="n">
+        <v>35</v>
+      </c>
+      <c r="E849" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="G849" t="n">
+        <v>1.3275</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Frederick </t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grove Soccer United</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D850" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F850" t="n">
+        <v>1.526666666666667</v>
+      </c>
+      <c r="G850" t="n">
+        <v>2.263333333333333</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Carolina United FC </t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Carolina Fusion U23</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>2</v>
+      </c>
+      <c r="D851" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E851" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F851" t="n">
+        <v>1.5825</v>
+      </c>
+      <c r="G851" t="n">
+        <v>1.6675</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greenville Liberty </t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Southern Soccer Academy</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D852" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E852" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F852" t="n">
+        <v>1.3275</v>
+      </c>
+      <c r="G852" t="n">
+        <v>1.6825</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canada </t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mexico</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D853" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E853" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F853" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="G853" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huachipato </t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gremio FB Porto Alegrense RS</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D854" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E854" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F854" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G854" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicaragua </t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Peru</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D855" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E855" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F855" t="n">
+        <v>1.4175</v>
+      </c>
+      <c r="G855" t="n">
+        <v>0.4975</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t xml:space="preserve">USA </t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D856" t="n">
+        <v>26</v>
+      </c>
+      <c r="E856" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="F856" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="G856" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RKC Soccer Club </t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bavarian United SC</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D857" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E857" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F857" t="n">
+        <v>3.673333333333333</v>
+      </c>
+      <c r="G857" t="n">
+        <v>1.113333333333333</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manta FC </t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Leones Del Norte</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D858" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G858" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paysandu SC PA </t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> America FC MG</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D859" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E859" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F859" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="G859" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Real Tomayapo </t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Internacional RS</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>15</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E860" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0.6733333333333333</v>
+      </c>
+      <c r="G860" t="n">
+        <v>1.196666666666667</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brazos Valley Cavalry FC </t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AHFC Royals</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D861" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F861" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.9650000000000001</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerezo Osaka </t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Machida Zelvia</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D862" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E862" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="G862" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Tokyo </t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>4</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E863" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F863" t="n">
+        <v>1.8475</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kashiwa Reysol </t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D864" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E864" t="n">
+        <v>1</v>
+      </c>
+      <c r="F864" t="n">
+        <v>2.2225</v>
+      </c>
+      <c r="G864" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niigata Albirex </t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D865" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E865" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F865" t="n">
+        <v>1.4675</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hokkaido Consadole Sapporo </t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kataller Toyama</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D866" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E866" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F866" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0.7375</v>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richards Bay FC </t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pretoria University FC</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D867" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E867" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G867" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emirates Club </t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Ain FC</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D868" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E868" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F868" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="G868" t="n">
+        <v>1.955</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AFC Metalul Buzau </t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSM Focsani 2007</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D869" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E869" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F869" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0.7033333333333335</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Dinamo Bucuresti </t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Afumati</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D870" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E870" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F870" t="n">
+        <v>1.596</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Unirea Ungheni 2018 </t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Gloria 2018 Bistrita-Nasaud</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D871" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E871" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F871" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G871" t="n">
+        <v>0.8059999999999998</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Bihor Oradea </t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSC Ghiroda SI Giarmata Vii</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D872" t="n">
+        <v>6</v>
+      </c>
+      <c r="E872" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.6175</v>
+      </c>
+      <c r="G872" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scm Ramnicu Valcea </t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACS Muscelul Campulung Elite</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D873" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E873" t="n">
+        <v>1</v>
+      </c>
+      <c r="F873" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G873" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egersunds IK </t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Asane Fotball</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D874" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E874" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F874" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G874" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slovakia </t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Marino</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D875" t="n">
+        <v>45</v>
+      </c>
+      <c r="E875" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="F875" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="G875" t="n">
+        <v>1.2325</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Central African Republic </t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chad</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D876" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E876" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F876" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="G876" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Namibia </t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liberia</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D877" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E877" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sierra Leone </t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Djibouti</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D878" t="n">
+        <v>16</v>
+      </c>
+      <c r="E878" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G878" t="n">
+        <v>1.0675</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Togo </t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> South Sudan</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D879" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E879" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G879" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KS Legionovia Legionowo </t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bron Radom</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D880" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E880" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F880" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="G880" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KaaPo </t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MaPS</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D881" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E881" t="n">
+        <v>3.930000000000001</v>
+      </c>
+      <c r="F881" t="n">
+        <v>1.4525</v>
+      </c>
+      <c r="G881" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Vaajakoski </t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JJK Jyvaskyla</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D882" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E882" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F882" t="n">
+        <v>1.886666666666667</v>
+      </c>
+      <c r="G882" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SaiPa FC </t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Naft Gachsaran</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D883" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E883" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shahrdari Astara </t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shahre Raz Shiraz</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D884" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.9966666666666667</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denmark </t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sweden</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D885" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E885" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F885" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="G885" t="n">
+        <v>1.0125</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norway </t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kosovo</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D886" t="n">
+        <v>8</v>
+      </c>
+      <c r="E886" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="F886" t="n">
+        <v>1.3625</v>
+      </c>
+      <c r="G886" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oskarshamns AIK </t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jonkopings Sodra IF</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D887" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E887" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F887" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G887" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turk Gucu Friedberg </t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SV Gonsenheim</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D888" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E888" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F888" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G888" t="n">
+        <v>1.5875</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wayside Celtic </t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St. Mochtas</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D889" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E889" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F889" t="n">
+        <v>1.4225</v>
+      </c>
+      <c r="G889" t="n">
+        <v>1.3525</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tunisia </t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D890" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E890" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LR Vicenza </t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Carrarese Calcio</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D891" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.9125</v>
+      </c>
+      <c r="G891" t="n">
+        <v>0.7524999999999998</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antigua and Barbuda </t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bermuda</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D892" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E892" t="n">
+        <v>4.380000000000001</v>
+      </c>
+      <c r="F892" t="n">
+        <v>1.323333333333333</v>
+      </c>
+      <c r="G892" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santiago Wanderers </t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Luis de Quillota</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D893" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E893" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F893" t="n">
+        <v>1.296666666666667</v>
+      </c>
+      <c r="G893" t="n">
+        <v>1.003333333333333</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keflavik IF </t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leiknir Reykjavik</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D894" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E894" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G894" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Luqueno </t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D895" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E895" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F895" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G895" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gualaceo SC </t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vargas Torres</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D896" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E896" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F896" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="G896" t="n">
+        <v>0.7979999999999999</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guayaquil City FC </t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Independiente Juniors</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D897" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E897" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0.9440000000000002</v>
+      </c>
+      <c r="G897" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Oriental de Football </t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La Luz FC</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D898" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E898" t="n">
+        <v>1</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.7274999999999999</v>
+      </c>
+      <c r="G898" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suriname </t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saint Vincent and the Grenadines</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D899" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E899" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F899" t="n">
+        <v>2.6725</v>
+      </c>
+      <c r="G899" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plaza Colonia </t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uruguay Montevideo FC</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D900" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E900" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F900" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G900" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC Juventude RS </t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Goianiense GO</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="D901" t="n">
+        <v>4</v>
+      </c>
+      <c r="E901" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G901" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christos FC </t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Northern Virginia FC</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D902" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E902" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F902" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G902" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Olimpia </t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D903" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E903" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G903" t="n">
+        <v>1.6475</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nacional Asuncion </t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D904" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E904" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1.773333333333333</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ml_fb.xlsx
+++ b/ml_fb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H904"/>
+  <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29371,6 +29371,2918 @@
         </is>
       </c>
     </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandria Reds </t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Virginia Dream FC</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D905" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E905" t="n">
+        <v>7.859999999999999</v>
+      </c>
+      <c r="F905" t="n">
+        <v>2.283333333333333</v>
+      </c>
+      <c r="G905" t="n">
+        <v>1.503333333333333</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Athens United </t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dothan United SC</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E906" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F906" t="n">
+        <v>2.946666666666667</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.1533333333333333</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlottesville Blues </t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lionsbridge FC</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D907" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E907" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G907" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flint City Bucks </t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFC Ann Arbor</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D908" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E908" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.8875</v>
+      </c>
+      <c r="G908" t="n">
+        <v>1.1625</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kalamazoo FC </t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Midwest United FC</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D909" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F909" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G909" t="n">
+        <v>1.9825</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wake FC </t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tobacco Road FC</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D910" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F910" t="n">
+        <v>1.573333333333333</v>
+      </c>
+      <c r="G910" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montevideo City Torque </t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Albion FC</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D911" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E911" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattanooga Red Wolves SC </t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Omaha SC</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F912" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G912" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boston Bolts </t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Blackwatch Rush</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D913" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E913" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F913" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="G913" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brooke House FC </t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brevard Fire SC</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>2</v>
+      </c>
+      <c r="D914" t="n">
+        <v>3</v>
+      </c>
+      <c r="E914" t="n">
+        <v>1</v>
+      </c>
+      <c r="F914" t="n">
+        <v>3.533333333333334</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0.3266666666666667</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morris Elite SC </t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manhattan SC</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E915" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F915" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G915" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunflower State FC </t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kansas City Sol</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D916" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E916" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G916" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuniburo FC </t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 de Octubre FC</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D917" t="n">
+        <v>5</v>
+      </c>
+      <c r="E917" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F917" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G917" t="n">
+        <v>0.3233333333333333</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Corinthians SP </t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santos FC SP</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D918" t="n">
+        <v>12</v>
+      </c>
+      <c r="E918" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="F918" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arsenal de Sarandi </t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E919" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G919" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortaleza EC CE </t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR Brasil AL</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D920" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E920" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F920" t="n">
+        <v>1.313333333333333</v>
+      </c>
+      <c r="G920" t="n">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San Antonio FC </t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D921" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E921" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="G921" t="n">
+        <v>1.0175</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motala AIF FK </t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IFK Kumla</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D922" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F922" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G922" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandria Reds </t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Virginia Dream FC</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D923" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E923" t="n">
+        <v>7.859999999999999</v>
+      </c>
+      <c r="F923" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G923" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Athens United </t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dothan United SC</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E924" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F924" t="n">
+        <v>1.586666666666667</v>
+      </c>
+      <c r="G924" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlottesville Blues </t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lionsbridge FC</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D925" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flint City Bucks </t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFC Ann Arbor</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D926" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E926" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="F926" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G926" t="n">
+        <v>1.7475</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kalamazoo FC </t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Midwest United FC</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D927" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E927" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F927" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G927" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wake FC </t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tobacco Road FC</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D928" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E928" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F928" t="n">
+        <v>1.573333333333333</v>
+      </c>
+      <c r="G928" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montevideo City Torque </t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Albion FC</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D929" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E929" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Curacao </t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Barbados</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D930" t="n">
+        <v>38</v>
+      </c>
+      <c r="E930" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="F930" t="n">
+        <v>3.703333333333333</v>
+      </c>
+      <c r="G930" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trinidad and Tobago </t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grenada</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D931" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E931" t="n">
+        <v>8.040000000000001</v>
+      </c>
+      <c r="F931" t="n">
+        <v>2.7775</v>
+      </c>
+      <c r="G931" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattanooga Red Wolves SC </t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Omaha SC</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F932" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="G932" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boston Bolts </t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Blackwatch Rush</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D933" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E933" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F933" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="G933" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brooke House FC </t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brevard Fire SC</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>2</v>
+      </c>
+      <c r="D934" t="n">
+        <v>3</v>
+      </c>
+      <c r="E934" t="n">
+        <v>1</v>
+      </c>
+      <c r="F934" t="n">
+        <v>3.533333333333334</v>
+      </c>
+      <c r="G934" t="n">
+        <v>0.3266666666666667</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morris Elite SC </t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manhattan SC</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E935" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F935" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G935" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunflower State FC </t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kansas City Sol</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D936" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E936" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G936" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuniburo FC </t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 de Octubre FC</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D937" t="n">
+        <v>5</v>
+      </c>
+      <c r="E937" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G937" t="n">
+        <v>0.3233333333333333</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Corinthians SP </t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santos FC SP</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D938" t="n">
+        <v>12</v>
+      </c>
+      <c r="E938" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="F938" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G938" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arsenal de Sarandi </t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E939" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G939" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortaleza EC CE </t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR Brasil AL</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D940" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E940" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F940" t="n">
+        <v>1.313333333333333</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mexico </t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uruguay</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D941" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E941" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F941" t="n">
+        <v>1.7075</v>
+      </c>
+      <c r="G941" t="n">
+        <v>1.5475</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San Antonio FC </t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> El Paso Locomotive FC</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D942" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E942" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="G942" t="n">
+        <v>1.0175</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicaragua </t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Montserrat</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D943" t="n">
+        <v>16</v>
+      </c>
+      <c r="E943" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="F943" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="G943" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indonesia </t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iraq</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D944" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F944" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G944" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangladesh </t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Australia</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>35</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E945" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="F945" t="n">
+        <v>2.8925</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0.1675</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chinese Taipei </t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oman</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>21</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E946" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="F946" t="n">
+        <v>1.3875</v>
+      </c>
+      <c r="G946" t="n">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Torslanda IK </t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ljungskile SK</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D947" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E947" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="G947" t="n">
+        <v>1.8975</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong Kong </t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iran</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>26</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E948" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.6833333333333332</v>
+      </c>
+      <c r="G948" t="n">
+        <v>1.586666666666667</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Singapore </t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>39</v>
+      </c>
+      <c r="D949" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E949" t="n">
+        <v>37.99</v>
+      </c>
+      <c r="F949" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="G949" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vietnam </t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philippines</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D950" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E950" t="n">
+        <v>7.550000000000001</v>
+      </c>
+      <c r="F950" t="n">
+        <v>1.278</v>
+      </c>
+      <c r="G950" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motala AIF FK </t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IFK Kumla</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D951" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E951" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F951" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G951" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hassleholms IF </t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Osterlen FF</t>
+        </is>
+      </c>
+      <c r="C952" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D952" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E952" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F952" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G952" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myanmar </t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Japan</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>31</v>
+      </c>
+      <c r="D953" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E953" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="F953" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G953" t="n">
+        <v>1</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malawi </t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sao Tome and Principe</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D954" t="n">
+        <v>23</v>
+      </c>
+      <c r="E954" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="F954" t="n">
+        <v>1.963333333333334</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mjallby AIF </t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IK Sirius</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D955" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E955" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F955" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Cerrito </t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sud America</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D956" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E956" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIF Orebro DFF </t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IF Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D957" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E957" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F957" t="n">
+        <v>1.696666666666667</v>
+      </c>
+      <c r="G957" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t xml:space="preserve">India </t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kuwait</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>3</v>
+      </c>
+      <c r="D958" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E958" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F958" t="n">
+        <v>1.1225</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IFK Ostersund </t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bergnasets AIK</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D959" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E959" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georgia </t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kazakhstan</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D960" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E960" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F960" t="n">
+        <v>1.576666666666667</v>
+      </c>
+      <c r="G960" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kultsu FC </t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MP/2</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D961" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E961" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G961" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TuPS </t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ponnistajat</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D962" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E962" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.8049999999999999</v>
+      </c>
+      <c r="G962" t="n">
+        <v>1.6925</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gibraltar </t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wales</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>47</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E963" t="n">
+        <v>45.96</v>
+      </c>
+      <c r="F963" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.9133333333333334</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Congo </t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niger</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D964" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E964" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F964" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guinea-Bissau </t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ethiopia</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D965" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E965" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.9375000000000001</v>
+      </c>
+      <c r="G965" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libya </t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mauritius</t>
+        </is>
+      </c>
+      <c r="C966" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D966" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E966" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="F966" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G966" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mauritania </t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sudan</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D967" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E967" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.5774999999999999</v>
+      </c>
+      <c r="G967" t="n">
+        <v>1.1175</v>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trapani Calcio </t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calcio Caldiero Terme</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D968" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E968" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G968" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denmark </t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Norway</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>2</v>
+      </c>
+      <c r="D969" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E969" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F969" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G969" t="n">
+        <v>0.7575</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnistan Ogeli </t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RiPS</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D970" t="n">
+        <v>3</v>
+      </c>
+      <c r="E970" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F970" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G970" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AD Cantolao </t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D971" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E971" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F971" t="n">
+        <v>1.716666666666667</v>
+      </c>
+      <c r="G971" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kongsvinger U19 </t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Lyn U19</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D972" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E972" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F972" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Follo FK </t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Skeid Fotball</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E973" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="F973" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G973" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grorud </t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Drobak/Frogn</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D974" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E974" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F974" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G974" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KFUM Oslo </t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baerum SK</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D975" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E975" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="F975" t="n">
+        <v>1.513333333333333</v>
+      </c>
+      <c r="G975" t="n">
+        <v>1.903333333333333</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ullern IF </t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Asker Fotball</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D976" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E976" t="n">
+        <v>0</v>
+      </c>
+      <c r="F976" t="n">
+        <v>2.2075</v>
+      </c>
+      <c r="G976" t="n">
+        <v>2.1175</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lørenskog U19 </t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Moss U19</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D977" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E977" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="F977" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G977" t="n">
+        <v>1.4175</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HK Kopavogur </t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMF Selfoss</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D978" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F978" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="G978" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Netherlands </t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D979" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E979" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.7825</v>
+      </c>
+      <c r="G979" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algeria </t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guinea</t>
+        </is>
+      </c>
+      <c r="C980" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D980" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E980" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1.164285714285714</v>
+      </c>
+      <c r="G980" t="n">
+        <v>1.575714285714286</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benin </t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rwanda</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D981" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E981" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.8450000000000001</v>
+      </c>
+      <c r="G981" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Egypt </t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burkina Faso</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D982" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E982" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F982" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G982" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mali </t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ghana</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D983" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E983" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G983" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senegal </t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DR Congo</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D984" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E984" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1.168333333333333</v>
+      </c>
+      <c r="G984" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UMF Selfoss </t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reynir Sandgerdi</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D985" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E985" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F985" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="G985" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KFK </t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMF Vidir</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E986" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F986" t="n">
+        <v>3</v>
+      </c>
+      <c r="G986" t="n">
+        <v>1</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KV Vesturbaer </t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kari</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E987" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F987" t="n">
+        <v>2.1675</v>
+      </c>
+      <c r="G987" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afturelding Mosfellsbaer </t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fram</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D988" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E988" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F988" t="n">
+        <v>1.2575</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Ameliano </t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tacuary Asuncion</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D989" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="G989" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IH Hafnarfjordur </t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arbaer</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E990" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="G990" t="n">
+        <v>3.319999999999999</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jamaica </t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dominican Republic</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D991" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E991" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="F991" t="n">
+        <v>1.323333333333333</v>
+      </c>
+      <c r="G991" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orsomarso SC </t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Atletico Huila</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D992" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E992" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="G992" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Palestino</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D993" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E993" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G993" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columbus Crew 2 </t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New England Revolution II</t>
+        </is>
+      </c>
+      <c r="C994" t="n">
+        <v>2</v>
+      </c>
+      <c r="D994" t="n">
+        <v>3</v>
+      </c>
+      <c r="E994" t="n">
+        <v>1</v>
+      </c>
+      <c r="F994" t="n">
+        <v>1.863333333333333</v>
+      </c>
+      <c r="G994" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philadelphia Union II </t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Cincinnati 2</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D995" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E995" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G995" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
